--- a/data/hotels_by_city/Houston/Houston_shard_438.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_438.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55704-d11726175-Reviews-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Houston-Cypress.h16543922.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1449 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r600966574-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>55704</t>
+  </si>
+  <si>
+    <t>11726175</t>
+  </si>
+  <si>
+    <t>600966574</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>La Quinta, Cypress</t>
+  </si>
+  <si>
+    <t>The lobby is very modern and well set up - I thought I was in another country; the breakfast buffet was varied with a lot of items; the room was immaculate and well laid out; the bed was very comfortable and had lots of pillows.  It is located on Highway 290 (under construction) and you need to access the hotel by going into the parking lot for Goodwill and proceeding past it to access the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>The lobby is very modern and well set up - I thought I was in another country; the breakfast buffet was varied with a lot of items; the room was immaculate and well laid out; the bed was very comfortable and had lots of pillows.  It is located on Highway 290 (under construction) and you need to access the hotel by going into the parking lot for Goodwill and proceeding past it to access the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r600622566-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>600622566</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Cool Room</t>
+  </si>
+  <si>
+    <t>The room was very spacious, well decorated, very comfortable and the A/C worked very well.  I would have loved to have stayed another day if I had the time. The lobby was great for meeting friends and have a cocktail or two.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The room was very spacious, well decorated, very comfortable and the A/C worked very well.  I would have loved to have stayed another day if I had the time. The lobby was great for meeting friends and have a cocktail or two.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r599432026-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>599432026</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful place! was a little tricky to find but the hotel itself was absolutely wonderful,  the hotel staff was very friendly and every thing was clean! great value!! highly recommend this hotel for anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>wonderful place! was a little tricky to find but the hotel itself was absolutely wonderful,  the hotel staff was very friendly and every thing was clean! great value!! highly recommend this hotel for anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r592842187-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>592842187</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>The hotel looks new. The internet is ok. The cleaning is ok. The outside looks is good bat not excellent. The parking lot is safety. The lobby is huge. The customers service is excellent. The lobby is a little noisy but the room is very quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
+  </si>
+  <si>
+    <t>The hotel looks new. The internet is ok. The cleaning is ok. The outside looks is good bat not excellent. The parking lot is safety. The lobby is huge. The customers service is excellent. The lobby is a little noisy but the room is very quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r592110693-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>592110693</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Great Texas Size Stay</t>
+  </si>
+  <si>
+    <t>Great front desk workers and the location is near eateries, shops, and the mall. The only thing we did not like is the low water pressure. The entire staff were great employees. I would stay at another LaQuinta property without hesitation.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Great front desk workers and the location is near eateries, shops, and the mall. The only thing we did not like is the low water pressure. The entire staff were great employees. I would stay at another LaQuinta property without hesitation.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r591329173-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>591329173</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Great and Welcoming Staff</t>
+  </si>
+  <si>
+    <t>This LaQuinta was very close to family which is why I picked it. The staff are all welcoming and greet you with a smile. They are helpful and knowledgeable. The free breakfast was typical -- nothing special, but nothing bad. But then... I'm not a typical breakfast person either! I was much happier with hotel breakfasts in Europe than in the U.S. The downside is the thin walls - I could hear everything around me. Also, water pressure low. Getting around from this location is difficult, but maybe once all the construction is done it will be easier.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>This LaQuinta was very close to family which is why I picked it. The staff are all welcoming and greet you with a smile. They are helpful and knowledgeable. The free breakfast was typical -- nothing special, but nothing bad. But then... I'm not a typical breakfast person either! I was much happier with hotel breakfasts in Europe than in the U.S. The downside is the thin walls - I could hear everything around me. Also, water pressure low. Getting around from this location is difficult, but maybe once all the construction is done it will be easier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r589704746-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>589704746</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>Rooms were very clean and spacious. Pool water was a tad too cold, but other than that it was fine. Everything looked new and well taken care of. The staff was super friendly. Which came in handy when my child had a melt down because she had to get out the pool. Would definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Rooms were very clean and spacious. Pool water was a tad too cold, but other than that it was fine. Everything looked new and well taken care of. The staff was super friendly. Which came in handy when my child had a melt down because she had to get out the pool. Would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r587222027-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>587222027</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Blown away</t>
+  </si>
+  <si>
+    <t>If you are looking for an awesome place to stay  - whether for business or leisure - I highly recommend this hotel. The lobby is modern and clean and the bar adds a great touch. The room was amazing for the price and we slept as if we were at home. We will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>If you are looking for an awesome place to stay  - whether for business or leisure - I highly recommend this hotel. The lobby is modern and clean and the bar adds a great touch. The room was amazing for the price and we slept as if we were at home. We will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r586419045-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>586419045</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>A good nights sleep</t>
+  </si>
+  <si>
+    <t>Even though we only stayed overnight, it was a good nights sleep. The breakfast the next morning was good as well. I would stay at this location again only because it was 30 minutes away from our destination. The construction around the area was distracting but once its complete a good spot to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Even though we only stayed overnight, it was a good nights sleep. The breakfast the next morning was good as well. I would stay at this location again only because it was 30 minutes away from our destination. The construction around the area was distracting but once its complete a good spot to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r582549228-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>582549228</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Very Friendly</t>
+  </si>
+  <si>
+    <t>Very Friendly and very clean and nice rooms.   Jackie greeted us and she is one of the BEST!!!!   We came in a middle of a huge storm in Houston and she was so nice with all of us and quickly got us checked in and to our rooms.   I was traveling with a business associate who was not feeling too well and she got him checked in very quickly so he could get to his room.   She was so kind to all of us checking in.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Very Friendly and very clean and nice rooms.   Jackie greeted us and she is one of the BEST!!!!   We came in a middle of a huge storm in Houston and she was so nice with all of us and quickly got us checked in and to our rooms.   I was traveling with a business associate who was not feeling too well and she got him checked in very quickly so he could get to his room.   She was so kind to all of us checking in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r582017293-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>582017293</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Very nice staff, they were nice from inquiring by phone to check in and out. Kind to my pets and easy access for my mobility cart. Room we huge handicap shower perfect. Mini Greg. Had a separate freezer huge plusMoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice staff, they were nice from inquiring by phone to check in and out. Kind to my pets and easy access for my mobility cart. Room we huge handicap shower perfect. Mini Greg. Had a separate freezer huge plusMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r579138753-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>579138753</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Beware of charges</t>
+  </si>
+  <si>
+    <t>I repeat, I repeat, make sure your info is taken down correctly and that they do not book you for the wrong address.  When I called the physical location I planned on staying to confirm my reservation, they didn't see the one Reservations Hotline supposedly booked so I went ahead and booked directly with the Hotel location I intended on staying. The day of check in, I checked to see if I had an email confirmation for my reservation, but I didn't. Reservations Hotline booked me for the wrong hotel, then charged me 1 night of $107 as a "NO SHOW" while I paid for 2 nights and stayed at the location I intended to. I have called and emailed every other day about receiving my refund and was told someone will be contacting which in the past 3 weeks, I have not heard from the person "that's supposed" to contact me. On top of this, they can't find where they charged me $107 but they found my charge for $216 that I physically paid for, kind of odd if you ask me. They wanted proof so I emailed them proof of my statements but still no response. Maybe my $107 isn't important and don't value me as a customer as I been staying at La Quinta Inn for 4 days a month for the past 2 months but one thing is for sure, they are SADLY mistaken if they...I repeat, I repeat, make sure your info is taken down correctly and that they do not book you for the wrong address.  When I called the physical location I planned on staying to confirm my reservation, they didn't see the one Reservations Hotline supposedly booked so I went ahead and booked directly with the Hotel location I intended on staying. The day of check in, I checked to see if I had an email confirmation for my reservation, but I didn't. Reservations Hotline booked me for the wrong hotel, then charged me 1 night of $107 as a "NO SHOW" while I paid for 2 nights and stayed at the location I intended to. I have called and emailed every other day about receiving my refund and was told someone will be contacting which in the past 3 weeks, I have not heard from the person "that's supposed" to contact me. On top of this, they can't find where they charged me $107 but they found my charge for $216 that I physically paid for, kind of odd if you ask me. They wanted proof so I emailed them proof of my statements but still no response. Maybe my $107 isn't important and don't value me as a customer as I been staying at La Quinta Inn for 4 days a month for the past 2 months but one thing is for sure, they are SADLY mistaken if they think I am going to let this go. Oh and one last thing, in my 15 years of hotel stays, I have NEVER EVER heard or stayed at hotel where you are subject to different rates for each day of your stay when you book for SET DAYS. I mean our jobs don't pay us higher on days due to inflation for that day or due to the supply and demand for that day. And Im pretty sure La Quinta doesn't pay their employees more on those days neither. Unless they take care of these issues, this is most likely be the last time I EVER stay at a La Quinta Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>I repeat, I repeat, make sure your info is taken down correctly and that they do not book you for the wrong address.  When I called the physical location I planned on staying to confirm my reservation, they didn't see the one Reservations Hotline supposedly booked so I went ahead and booked directly with the Hotel location I intended on staying. The day of check in, I checked to see if I had an email confirmation for my reservation, but I didn't. Reservations Hotline booked me for the wrong hotel, then charged me 1 night of $107 as a "NO SHOW" while I paid for 2 nights and stayed at the location I intended to. I have called and emailed every other day about receiving my refund and was told someone will be contacting which in the past 3 weeks, I have not heard from the person "that's supposed" to contact me. On top of this, they can't find where they charged me $107 but they found my charge for $216 that I physically paid for, kind of odd if you ask me. They wanted proof so I emailed them proof of my statements but still no response. Maybe my $107 isn't important and don't value me as a customer as I been staying at La Quinta Inn for 4 days a month for the past 2 months but one thing is for sure, they are SADLY mistaken if they...I repeat, I repeat, make sure your info is taken down correctly and that they do not book you for the wrong address.  When I called the physical location I planned on staying to confirm my reservation, they didn't see the one Reservations Hotline supposedly booked so I went ahead and booked directly with the Hotel location I intended on staying. The day of check in, I checked to see if I had an email confirmation for my reservation, but I didn't. Reservations Hotline booked me for the wrong hotel, then charged me 1 night of $107 as a "NO SHOW" while I paid for 2 nights and stayed at the location I intended to. I have called and emailed every other day about receiving my refund and was told someone will be contacting which in the past 3 weeks, I have not heard from the person "that's supposed" to contact me. On top of this, they can't find where they charged me $107 but they found my charge for $216 that I physically paid for, kind of odd if you ask me. They wanted proof so I emailed them proof of my statements but still no response. Maybe my $107 isn't important and don't value me as a customer as I been staying at La Quinta Inn for 4 days a month for the past 2 months but one thing is for sure, they are SADLY mistaken if they think I am going to let this go. Oh and one last thing, in my 15 years of hotel stays, I have NEVER EVER heard or stayed at hotel where you are subject to different rates for each day of your stay when you book for SET DAYS. I mean our jobs don't pay us higher on days due to inflation for that day or due to the supply and demand for that day. And Im pretty sure La Quinta doesn't pay their employees more on those days neither. Unless they take care of these issues, this is most likely be the last time I EVER stay at a La Quinta Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r575376267-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>575376267</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Ms.Wanda was amazing great customer service and took great care of us. There was a dog in the room next to us that barked all night. Very annoying. Overall stay was good. Location was about 20 mins from Prairie View University.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Ms.Wanda was amazing great customer service and took great care of us. There was a dog in the room next to us that barked all night. Very annoying. Overall stay was good. Location was about 20 mins from Prairie View University.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r574592583-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>574592583</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only Handicap rooms on ground floor. </t>
+  </si>
+  <si>
+    <t>This is LaQuinta’s new floor plan being built now.  The only rooms on the ground floor are handicap. They didn’t even have an ice machine on the ground floor.  Rooms were clean and comfortable and the usual LaQuinta comfortable beds. Large lounge - breakfast area and a bar for happy hour.  We missed breakfast so unable to comment on that. Check in and out was easy. But I prefer the old style hotel. This is a modern style decor that is a little to cold for  me. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is LaQuinta’s new floor plan being built now.  The only rooms on the ground floor are handicap. They didn’t even have an ice machine on the ground floor.  Rooms were clean and comfortable and the usual LaQuinta comfortable beds. Large lounge - breakfast area and a bar for happy hour.  We missed breakfast so unable to comment on that. Check in and out was easy. But I prefer the old style hotel. This is a modern style decor that is a little to cold for  me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r572580045-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>572580045</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Cypress La Quinta</t>
+  </si>
+  <si>
+    <t>Hotel was new and very nicely furnished. Front desk personnel very helpful. Room was very clean and comfortable. Breakfast was also good. Only problem was missing the signage to access the hotel. We recommend this to anyone staying in the Cypress area.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Hotel was new and very nicely furnished. Front desk personnel very helpful. Room was very clean and comfortable. Breakfast was also good. Only problem was missing the signage to access the hotel. We recommend this to anyone staying in the Cypress area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r569813687-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>569813687</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>This is a new, very clean, well run LaQuinta.  Right off of route 290.  Many restaurants close by.  Nice place.  I will definitely stay here again if business draws me to the area.  The Daikin plant that I was in town to visit is 8 miles away.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>This is a new, very clean, well run LaQuinta.  Right off of route 290.  Many restaurants close by.  Nice place.  I will definitely stay here again if business draws me to the area.  The Daikin plant that I was in town to visit is 8 miles away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r568540584-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>568540584</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r567681046-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>567681046</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Family Outing</t>
+  </si>
+  <si>
+    <t>Ended our spring break in Houston. Kemah and Outlet mall. Hotel was prefect compared to other LaQunita I've been too. Clean, quiet, friendly and great service l; breakfast great for the kids. I enjoyed my stay and plan to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ended our spring break in Houston. Kemah and Outlet mall. Hotel was prefect compared to other LaQunita I've been too. Clean, quiet, friendly and great service l; breakfast great for the kids. I enjoyed my stay and plan to stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r565965022-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>565965022</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Good Retirees</t>
+  </si>
+  <si>
+    <t>We enjoyed the hotel. The new lobbly design is pleasing and relaxing. Loved the mini deli. WE usually uses LaQuinta since we travel with a pet. Nice to have that option. This one is a bit hard to find because of the road construction You will need a GPS to ffind it.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>We enjoyed the hotel. The new lobbly design is pleasing and relaxing. Loved the mini deli. WE usually uses LaQuinta since we travel with a pet. Nice to have that option. This one is a bit hard to find because of the road construction You will need a GPS to ffind it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r565359975-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>565359975</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Weekend with Grandbaby</t>
+  </si>
+  <si>
+    <t>New hotel that is 100% nonsmoking and is very clean. The breakfast is pretty much standard for a La  Quinta but the lady taking care of everything makes it special. A lot of road construction nearby and all over Cypress and Houston. Did not have a lot of water pressure in our room was really the only thing that I could find wrong with this place. Jasmine at the front desk and at manager's reception was a dream come come true. She makes you feel like the hotel was built just for you. Hotel is close to good places to eat and the outlet mall is only a couple of miles away.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2018</t>
+  </si>
+  <si>
+    <t>New hotel that is 100% nonsmoking and is very clean. The breakfast is pretty much standard for a La  Quinta but the lady taking care of everything makes it special. A lot of road construction nearby and all over Cypress and Houston. Did not have a lot of water pressure in our room was really the only thing that I could find wrong with this place. Jasmine at the front desk and at manager's reception was a dream come come true. She makes you feel like the hotel was built just for you. Hotel is close to good places to eat and the outlet mall is only a couple of miles away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r562239851-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>562239851</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>House Hunting Trip</t>
+  </si>
+  <si>
+    <t>The staff is wonderful, the building is clean and new (we watched it being built and were excited that it was coming b/c it is close to our son), the food is average with exception of the coffee. The coffee is HORRIBLE! You should change brands. The water pressure/flow in the bath laboratory is barely a full stream. That and the coffee needs to be improved drastically!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>The staff is wonderful, the building is clean and new (we watched it being built and were excited that it was coming b/c it is close to our son), the food is average with exception of the coffee. The coffee is HORRIBLE! You should change brands. The water pressure/flow in the bath laboratory is barely a full stream. That and the coffee needs to be improved drastically!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r557907492-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>557907492</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Clean, great location, friendly staff</t>
+  </si>
+  <si>
+    <t>We had to stay last minute. We live nearby but kitchen cabinets being painted and had to stay in hotel due to fumes. Thank goodness La Quinta let us bring our dogs. Continental breakfast a plus since she still had to go to school, work and sports. Only 1 room left when I called with a king bed for 2 adults and a 9 year old...thats why I cannot rate my sleep very highly. Also hotel full with sports and cheer kids and due to rain they were loud and bored even at night. Walls are thin for a new hotel and no fan in bath. I could hear neighbor throwing up for over an hour!!!!  Indoor pool but not heated???  No hot tub. Still good value and very clean and friendly staff. As an interior designer I liked the lobby and rooms but the lobby is soooo bright and glaring even at night. Lots of lights and lots of white. Not sure if they could dim in evening. Would recommend hotel to others esp if have a pet. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>We had to stay last minute. We live nearby but kitchen cabinets being painted and had to stay in hotel due to fumes. Thank goodness La Quinta let us bring our dogs. Continental breakfast a plus since she still had to go to school, work and sports. Only 1 room left when I called with a king bed for 2 adults and a 9 year old...thats why I cannot rate my sleep very highly. Also hotel full with sports and cheer kids and due to rain they were loud and bored even at night. Walls are thin for a new hotel and no fan in bath. I could hear neighbor throwing up for over an hour!!!!  Indoor pool but not heated???  No hot tub. Still good value and very clean and friendly staff. As an interior designer I liked the lobby and rooms but the lobby is soooo bright and glaring even at night. Lots of lights and lots of white. Not sure if they could dim in evening. Would recommend hotel to others esp if have a pet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r557477952-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>557477952</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Happy, as usual</t>
+  </si>
+  <si>
+    <t>This facility is fairly new (less than 1 year old). I have stayed in about 50 La Quinta's all around the country. We stay at LQs because of their pet policy, and  are very happy with most of  them. This facility was no exception. The excellent service, accommodations, and atmosphere were up to or exceeded the standards I expect of La Quinta. Thank you for a pleasant weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>This facility is fairly new (less than 1 year old). I have stayed in about 50 La Quinta's all around the country. We stay at LQs because of their pet policy, and  are very happy with most of  them. This facility was no exception. The excellent service, accommodations, and atmosphere were up to or exceeded the standards I expect of La Quinta. Thank you for a pleasant weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r557308553-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>557308553</t>
+  </si>
+  <si>
+    <t>First stay!</t>
+  </si>
+  <si>
+    <t>Excellent experience. Good service, great friendly staff, nice bar, and really nice rooms for the price. The hotel was very clean and in a desirable location. Only problem was the choice of breakfast wasn’t the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent experience. Good service, great friendly staff, nice bar, and really nice rooms for the price. The hotel was very clean and in a desirable location. Only problem was the choice of breakfast wasn’t the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r554833846-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>554833846</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Clean but thin walls</t>
+  </si>
+  <si>
+    <t>Good overnight stay. Parking lot is slightly difficult to find. We had 4 staying in a room, each of us woke up at least once during the night because we could hear the couple on the other side of the wall talking. Standard hot breakfast. New and clean. Easy check in. MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded January 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2018</t>
+  </si>
+  <si>
+    <t>Good overnight stay. Parking lot is slightly difficult to find. We had 4 staying in a room, each of us woke up at least once during the night because we could hear the couple on the other side of the wall talking. Standard hot breakfast. New and clean. Easy check in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r553368691-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>553368691</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Expected nothing less</t>
+  </si>
+  <si>
+    <t>Great price. Nice rooms. Good breakfast options. Happy customer. I will stay here again in the future. I would also recommend family or friends to stay here as well. Thank you for the fast professional service that I was given when I arrived at the hotel. Look forward to my next day there.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Great price. Nice rooms. Good breakfast options. Happy customer. I will stay here again in the future. I would also recommend family or friends to stay here as well. Thank you for the fast professional service that I was given when I arrived at the hotel. Look forward to my next day there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r551314766-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>551314766</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>modern hotel</t>
+  </si>
+  <si>
+    <t>the hotel was super clean and everything had a modern look, not just the entrance/ lobby area but including the rooms too. all the furniture was updated. would come back to this location in the future. No complaints about the noise either.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>the hotel was super clean and everything had a modern look, not just the entrance/ lobby area but including the rooms too. all the furniture was updated. would come back to this location in the future. No complaints about the noise either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r549886692-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>549886692</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>LaQuinta Christmas trip</t>
+  </si>
+  <si>
+    <t>Hotel looked very new and well kept. Room was spacious, clean and comfortable. Staff was very friendly and accommodating. And room rate made this a great value. Free wifi and breakfast was nice. Good location right off a main highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Hotel looked very new and well kept. Room was spacious, clean and comfortable. Staff was very friendly and accommodating. And room rate made this a great value. Free wifi and breakfast was nice. Good location right off a main highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r549723676-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>549723676</t>
+  </si>
+  <si>
+    <t>No problems great pet hotel. I would recommend this hotel to stay at with or without a pet. Good location, new hotel, extremely clean and staff very accomodating. Close to highway, outlet mall and numerous resturants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r548330226-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>548330226</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>M&amp;M moving</t>
+  </si>
+  <si>
+    <t>Great hotel, well lit parking lot and easy check in. The staff was friendly, this hotel had a bar there also which was nice to go downstairs and have a beer before bed. the breakfast was more than suffice.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel, well lit parking lot and easy check in. The staff was friendly, this hotel had a bar there also which was nice to go downstairs and have a beer before bed. the breakfast was more than suffice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r546326515-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>546326515</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>A very nice La Quinta Hotel</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at how nice the hotel was. I had not seen a bar at a La Quinta before. It was nice to have in the evening. It was walking distance to good restaurants, and a very short drive to many othersMoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2017</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at how nice the hotel was. I had not seen a bar at a La Quinta before. It was nice to have in the evening. It was walking distance to good restaurants, and a very short drive to many othersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r543945828-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>543945828</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This hotel is challenging to find as the parking lot is hidden beside a Goodwill store but the the hotel itself is worth the find.  This is a new property with a nice bar and dining section.  The front desk is very pretty, staff were friendly, and the rooms very nice.  We had a small fridge and microwave that both worked well.  The bathroom was clean with a over sized shower.  Again very nice.  Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is challenging to find as the parking lot is hidden beside a Goodwill store but the the hotel itself is worth the find.  This is a new property with a nice bar and dining section.  The front desk is very pretty, staff were friendly, and the rooms very nice.  We had a small fridge and microwave that both worked well.  The bathroom was clean with a over sized shower.  Again very nice.  Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r543148189-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>543148189</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Thanksgiving Stay</t>
+  </si>
+  <si>
+    <t>Great experience overall but you have drive through the Goodwill entrance to get to hotel and take frontage road to get around area. Very trafficked due to the businesses you have to pass through for reaching hotel lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded November 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2017</t>
+  </si>
+  <si>
+    <t>Great experience overall but you have drive through the Goodwill entrance to get to hotel and take frontage road to get around area. Very trafficked due to the businesses you have to pass through for reaching hotel lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r542362946-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>542362946</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>weekend staycation</t>
+  </si>
+  <si>
+    <t>I booked as a 1 night staycation from the kids, but was pleasantly surprised by every aspect of this hotel.  Felt as if we were in a luxury resort. Proposed to my lady and the staff was very helpful with a few special request I made.  Enabled me to make last minute plans flow seamlessly.  I really appreciation everything the staff did in order to help me make a special night, that much better.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>I booked as a 1 night staycation from the kids, but was pleasantly surprised by every aspect of this hotel.  Felt as if we were in a luxury resort. Proposed to my lady and the staff was very helpful with a few special request I made.  Enabled me to make last minute plans flow seamlessly.  I really appreciation everything the staff did in order to help me make a special night, that much better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r539074691-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>539074691</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Best LQ in the game!</t>
+  </si>
+  <si>
+    <t>Customer service at this hotel in phenomenal.  GM and front desk folks go above and beyond to ensure guest have a good experience.  Hotel is very modern and clean. Rooms are spacious and lobby/bar areas are well furnished and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Customer service at this hotel in phenomenal.  GM and front desk folks go above and beyond to ensure guest have a good experience.  Hotel is very modern and clean. Rooms are spacious and lobby/bar areas are well furnished and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r538407466-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>538407466</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>PVAMU Homecoming Weekend</t>
+  </si>
+  <si>
+    <t>Services were excellent. Ideal location close to campus. Lots of restaurants in the area to choose from. Close to a strip mall if you need additional services. I would recommend this hotel as it is accessible to Hwy 290, about 15 miles from campus.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Services were excellent. Ideal location close to campus. Lots of restaurants in the area to choose from. Close to a strip mall if you need additional services. I would recommend this hotel as it is accessible to Hwy 290, about 15 miles from campus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r536637055-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>536637055</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Property</t>
+  </si>
+  <si>
+    <t>Loved our stay. This property was very contemporary. All LA Quinta hotels should be updated like this one. Great service very clean. Staff was wonderful. Laundry room was nice and clean. Fitness room was roomy.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Loved our stay. This property was very contemporary. All LA Quinta hotels should be updated like this one. Great service very clean. Staff was wonderful. Laundry room was nice and clean. Fitness room was roomy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r534968490-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>534968490</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r534616007-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>534616007</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Home away from home.</t>
+  </si>
+  <si>
+    <t>I am delighted to give this La Quinta Inn &amp; Suites the highest rating.  My wife and I were displaced from our home of 26 years due to Hurricane Harvey.  The employees and management of La Quinta have gone out of their way to ease us into a home away from home.  I would like to especially thank Alanis, Anderson, Jamel, and last but not least Diamond, for their warm and welcoming attitudes.  They went out of their way to make our misfortune into a pleasant experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I am delighted to give this La Quinta Inn &amp; Suites the highest rating.  My wife and I were displaced from our home of 26 years due to Hurricane Harvey.  The employees and management of La Quinta have gone out of their way to ease us into a home away from home.  I would like to especially thank Alanis, Anderson, Jamel, and last but not least Diamond, for their warm and welcoming attitudes.  They went out of their way to make our misfortune into a pleasant experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r532565472-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>532565472</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Poor Customer Service</t>
+  </si>
+  <si>
+    <t>Got in very late. Made sure to leave the do not disturb sign on the door. At 8:30 am the maid was knocking loudly at my door waking up my sleeping child to ask me what time I was checking out. Mind you checkout time is noon. Went down to speak to the manager and apparently one wasn't on duty because they had a soccer game. I left a note and contact info and still no one contacted meMoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Got in very late. Made sure to leave the do not disturb sign on the door. At 8:30 am the maid was knocking loudly at my door waking up my sleeping child to ask me what time I was checking out. Mind you checkout time is noon. Went down to speak to the manager and apparently one wasn't on duty because they had a soccer game. I left a note and contact info and still no one contacted meMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r531708637-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>531708637</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>100 percent smoke free, makes a difference in the building. Huge lobby with sitting area, good breakfast and even a bar for a night cap. Rooms are spacious and comfortable. Staff was great, very helpful and polite.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>100 percent smoke free, makes a difference in the building. Huge lobby with sitting area, good breakfast and even a bar for a night cap. Rooms are spacious and comfortable. Staff was great, very helpful and polite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r529345056-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>529345056</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Was I staying at a La Quinta?</t>
+  </si>
+  <si>
+    <t>I have stayed at many and the modern quality of this very new and beautiful property property was far above what we have ever experienced at any La Quinta. We have stayed at much higher-priced accommodations with the same design and amenities.  Attentive and friendly staff at were working hard to make it a great stay for everyone.  Beds were comfortable room was quiet. The technology in the conference room worked perfectly for our board meeting, and the controls on the big screen were intuitive. The HDMI direct connection worked beautifully. Will definitely recommend this property to anyone needing to stay in the Cypress area.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at many and the modern quality of this very new and beautiful property property was far above what we have ever experienced at any La Quinta. We have stayed at much higher-priced accommodations with the same design and amenities.  Attentive and friendly staff at were working hard to make it a great stay for everyone.  Beds were comfortable room was quiet. The technology in the conference room worked perfectly for our board meeting, and the controls on the big screen were intuitive. The HDMI direct connection worked beautifully. Will definitely recommend this property to anyone needing to stay in the Cypress area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r519847267-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>519847267</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Quiet and comfortable.The cleanliness of the room was outstanding. My only grip was breakfast. I'm asking all of LaQuinta management to please please stop it with the powered eggs. I'm sure your corporation can do better. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Quiet and comfortable.The cleanliness of the room was outstanding. My only grip was breakfast. I'm asking all of LaQuinta management to please please stop it with the powered eggs. I'm sure your corporation can do better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r518068525-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>518068525</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Love the stay and surrounding area will most definitely book again in the near future the stay was very plesent</t>
+  </si>
+  <si>
+    <t>Love the stay and the surrounding area most definitely will stay in the near future everyone was friendly and on time curiosity also checkin was speedy my son love the pool area we will c you soon. I left my purse and the clerk was very honest to go and check my room to see if it was there. Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Love the stay and the surrounding area most definitely will stay in the near future everyone was friendly and on time curiosity also checkin was speedy my son love the pool area we will c you soon. I left my purse and the clerk was very honest to go and check my room to see if it was there. Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r517884021-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>517884021</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>upset with customer service</t>
+  </si>
+  <si>
+    <t>overall hotel nice and clean, just terrible customer service information. I am just upset on the price I had to pay. Hotel was very nice.  I booked hotel for Cypress with a 68.00 rate and was charges a 84.00 rate. due to agent mistake and no one cared or did anything about it. it was not in my budget and its like i told the story 3 times about agent and nothing was doneMoreShow less</t>
+  </si>
+  <si>
+    <t>overall hotel nice and clean, just terrible customer service information. I am just upset on the price I had to pay. Hotel was very nice.  I booked hotel for Cypress with a 68.00 rate and was charges a 84.00 rate. due to agent mistake and no one cared or did anything about it. it was not in my budget and its like i told the story 3 times about agent and nothing was doneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r507983724-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>507983724</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Brand New - Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel with a hot complimentary breakfast, fast wi-fi, and friendly staff.  The parking lot is well lit and there is a sundries shop.  If you are passing through Houston on the way to Austin it gets you past the thick morning traffic for an easy start.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel with a hot complimentary breakfast, fast wi-fi, and friendly staff.  The parking lot is well lit and there is a sundries shop.  If you are passing through Houston on the way to Austin it gets you past the thick morning traffic for an easy start.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r507983622-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>507983622</t>
+  </si>
+  <si>
+    <t>for a quick trip over night</t>
+  </si>
+  <si>
+    <t>was in town for one night for a event  hotel was very nice but after a long day and wanting to take a nice shower the water pressure was almost non existence. the staff was knowledgeable of the area and the pool was nice and cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>was in town for one night for a event  hotel was very nice but after a long day and wanting to take a nice shower the water pressure was almost non existence. the staff was knowledgeable of the area and the pool was nice and cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r506369111-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>506369111</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Business Stay</t>
+  </si>
+  <si>
+    <t>Stay was very enjoyable &amp; inviting. Staff was very warm and inviting. The breakfast was delightful . In addition I thoroughly enjoyed the bar and the atmosphere . The room was new and fresh and up to date. In all my experience at the laquinta inn &amp; suites cypress was very wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Stay was very enjoyable &amp; inviting. Staff was very warm and inviting. The breakfast was delightful . In addition I thoroughly enjoyed the bar and the atmosphere . The room was new and fresh and up to date. In all my experience at the laquinta inn &amp; suites cypress was very wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r504993703-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>504993703</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>I love this hotel. Its very clean and staff is friendly. The rooms were nice size, came with ice box and microwave. Restaurants and stores about 5-10 mins away. Everything was prefect. I would most definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>I love this hotel. Its very clean and staff is friendly. The rooms were nice size, came with ice box and microwave. Restaurants and stores about 5-10 mins away. Everything was prefect. I would most definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r503760542-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>503760542</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Very Impressed</t>
+  </si>
+  <si>
+    <t>It's been a while since I stayed at La Quinta, and the only reason I did so on this trip was because of the location.  I was very impressed with the look and feel of the hotel, the cleanliness, and bang for my buck.  After this experience, I will stay at La Quinta again soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>It's been a while since I stayed at La Quinta, and the only reason I did so on this trip was because of the location.  I was very impressed with the look and feel of the hotel, the cleanliness, and bang for my buck.  After this experience, I will stay at La Quinta again soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r503336724-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>503336724</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Really Liked It</t>
+  </si>
+  <si>
+    <t>Nice and new.  Very clean and fresh. Room was in order and ready upon arrival.  Hotel has amenities that you find in some of the more upscale and pricey properties. Breakfast was not too bad.  Awkward to get to from service road.  Overall, nice spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice and new.  Very clean and fresh. Room was in order and ready upon arrival.  Hotel has amenities that you find in some of the more upscale and pricey properties. Breakfast was not too bad.  Awkward to get to from service road.  Overall, nice spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r502374602-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>502374602</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Pleasant Experience</t>
+  </si>
+  <si>
+    <t>Staff and atmosphere very pleasant. Clean, warm, new facilities and room. Close to outlets and shopping area, a very nice location. Hot breakfast provided!Felt very calm and peaceful throughout the facilities. A seafood restaurant within walking distance made the experience even more enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Staff and atmosphere very pleasant. Clean, warm, new facilities and room. Close to outlets and shopping area, a very nice location. Hot breakfast provided!Felt very calm and peaceful throughout the facilities. A seafood restaurant within walking distance made the experience even more enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r501807618-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>501807618</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Cypress stay</t>
+  </si>
+  <si>
+    <t>Excellent hotel, the staff is very helpful and accommodating, specially Jamel. We enjoyed the stay very much.  The breakfast selection was very good and the staff keeps it warm and clean. The hotel is new and very cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent hotel, the staff is very helpful and accommodating, specially Jamel. We enjoyed the stay very much.  The breakfast selection was very good and the staff keeps it warm and clean. The hotel is new and very cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r498444199-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>498444199</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>We went to a wedding at Lindsey Lakes and this hotel was perfect location to the venue.  Very nice hotel, modern and was very clean. Another plus was the hotel was right by Buccees so easy for food and drinks.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>We went to a wedding at Lindsey Lakes and this hotel was perfect location to the venue.  Very nice hotel, modern and was very clean. Another plus was the hotel was right by Buccees so easy for food and drinks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r492645437-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>492645437</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>.........................</t>
+  </si>
+  <si>
+    <t>Excellent facility. Highly recommend. Staff very friendly. The breakfast was great. Beds a little firmer than I like, but they can't please everybody. It was a little hard to get to, but they are open only 5 months and still working on signage on the access road.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Excellent facility. Highly recommend. Staff very friendly. The breakfast was great. Beds a little firmer than I like, but they can't please everybody. It was a little hard to get to, but they are open only 5 months and still working on signage on the access road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r492301906-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>492301906</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed </t>
+  </si>
+  <si>
+    <t>Front desk staff was not very friendly or helpful.  We were gone most of the day and our room never got cleaned.  Especially surprising, since the hotel was empty.  There were 4 other cars in the whole parking lot. Room was very nice, but a little small.  Nice lobby.  Pool was out of service. Elevator was dirty. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Front desk staff was not very friendly or helpful.  We were gone most of the day and our room never got cleaned.  Especially surprising, since the hotel was empty.  There were 4 other cars in the whole parking lot. Room was very nice, but a little small.  Nice lobby.  Pool was out of service. Elevator was dirty. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r490502040-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>490502040</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Great stay...a bit hard to get to but worth it!</t>
+  </si>
+  <si>
+    <t>Only 5 months old, this is a very nice hotel. The staff was excellent, facilities pristine, and the beds were perfect...not too soft like many these days. Don't follow Google map...just take the outer road. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Only 5 months old, this is a very nice hotel. The staff was excellent, facilities pristine, and the beds were perfect...not too soft like many these days. Don't follow Google map...just take the outer road. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r491658185-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>491658185</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Clean the bathroom!</t>
+  </si>
+  <si>
+    <t>This is a fairly new Hotel. The decor is modern, It is a nice hotel. With that being said the bathroom was not cleaned we only slept there. And after along day being out we come back to our room and there was pubic hair in the toilet and the sink was not clean. I really do not think someone was doing there job.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r491657936-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>491657936</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hotel difficult to access from hwy 290, too much construction in the area, caused me to get flat tire by getting nail in tire from local road.  Hotel pool water very cold, adults unable to use, and not enough lounge chairs around pool.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r491659105-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>491659105</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>barker cypress inspections</t>
+  </si>
+  <si>
+    <t>Nice hotel but very difficult to get to due to lack of designated entrance.   Breakfast selections could be a little better and no one likes microwaved eggs, but this is standard for La Quinta.   Best Western has a much better breakfast but this hotel was close to my business for the day.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r491658952-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>491658952</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>New Gem in Cypress</t>
+  </si>
+  <si>
+    <t>The new La Quinta was pretty &amp; well-designed in the new LQ style.The staff was friendly &amp; helpful. The room was clean with new electronics-friendly appointments and outlets. The location is offset from the Cypress Buc-ees, so I guess this will be known as the Buc-ees LQ.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r491657833-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>491657833</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>I have an extremely high standard for a hotel and this one met all of them.  It was brand new, very clean and updated.  Great location.  Lots of restaurants and shopping. Would highly recommend it and would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r458948180-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>458948180</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Front Desk help was outstanding</t>
+  </si>
+  <si>
+    <t>I stayed here the week of the Super Bowl.  The managers seemed very busy with the high number of guests due to the Super Bowl, that said, the staff working at the front desk were amazing!  From giving directions to accommodations, they went above and beyond to help me out.  The rooms were clean and the staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here the week of the Super Bowl.  The managers seemed very busy with the high number of guests due to the Super Bowl, that said, the staff working at the front desk were amazing!  From giving directions to accommodations, they went above and beyond to help me out.  The rooms were clean and the staff was friendly.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1981,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2013,4452 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>177</v>
+      </c>
+      <c r="X19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>191</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>199</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>209</v>
+      </c>
+      <c r="X22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>226</v>
+      </c>
+      <c r="X25" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>239</v>
+      </c>
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" t="s">
+        <v>199</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>256</v>
+      </c>
+      <c r="X28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>264</v>
+      </c>
+      <c r="X29" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>255</v>
+      </c>
+      <c r="O31" t="s">
+        <v>199</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>275</v>
+      </c>
+      <c r="X31" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>255</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>283</v>
+      </c>
+      <c r="X32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>199</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>300</v>
+      </c>
+      <c r="X34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>291</v>
+      </c>
+      <c r="O35" t="s">
+        <v>199</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>308</v>
+      </c>
+      <c r="X35" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>291</v>
+      </c>
+      <c r="O36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>316</v>
+      </c>
+      <c r="X36" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>324</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>325</v>
+      </c>
+      <c r="X37" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J38" t="s">
+        <v>330</v>
+      </c>
+      <c r="K38" t="s">
+        <v>331</v>
+      </c>
+      <c r="L38" t="s">
+        <v>332</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" t="s">
+        <v>199</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>333</v>
+      </c>
+      <c r="X38" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>176</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>324</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>339</v>
+      </c>
+      <c r="X39" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>341</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>342</v>
+      </c>
+      <c r="J40" t="s">
+        <v>343</v>
+      </c>
+      <c r="K40" t="s">
+        <v>344</v>
+      </c>
+      <c r="L40" t="s">
+        <v>345</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>346</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>339</v>
+      </c>
+      <c r="X40" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>348</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>349</v>
+      </c>
+      <c r="J41" t="s">
+        <v>350</v>
+      </c>
+      <c r="K41" t="s">
+        <v>351</v>
+      </c>
+      <c r="L41" t="s">
+        <v>352</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>353</v>
+      </c>
+      <c r="X41" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>324</v>
+      </c>
+      <c r="O42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>361</v>
+      </c>
+      <c r="X42" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>364</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>365</v>
+      </c>
+      <c r="J43" t="s">
+        <v>366</v>
+      </c>
+      <c r="K43" t="s">
+        <v>367</v>
+      </c>
+      <c r="L43" t="s">
+        <v>368</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>346</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>369</v>
+      </c>
+      <c r="X43" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>377</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>378</v>
+      </c>
+      <c r="X44" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>382</v>
+      </c>
+      <c r="J45" t="s">
+        <v>383</v>
+      </c>
+      <c r="K45" t="s">
+        <v>384</v>
+      </c>
+      <c r="L45" t="s">
+        <v>385</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>377</v>
+      </c>
+      <c r="O45" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>386</v>
+      </c>
+      <c r="X45" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
+        <v>393</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>377</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>386</v>
+      </c>
+      <c r="X46" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>396</v>
+      </c>
+      <c r="J47" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" t="s">
+        <v>399</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>401</v>
+      </c>
+      <c r="X47" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>404</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>405</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>406</v>
+      </c>
+      <c r="L48" t="s">
+        <v>407</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" t="s">
+        <v>199</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>401</v>
+      </c>
+      <c r="X48" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>409</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>410</v>
+      </c>
+      <c r="J49" t="s">
+        <v>411</v>
+      </c>
+      <c r="K49" t="s">
+        <v>412</v>
+      </c>
+      <c r="L49" t="s">
+        <v>413</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>400</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>414</v>
+      </c>
+      <c r="X49" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>418</v>
+      </c>
+      <c r="J50" t="s">
+        <v>419</v>
+      </c>
+      <c r="K50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L50" t="s">
+        <v>421</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>400</v>
+      </c>
+      <c r="O50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>422</v>
+      </c>
+      <c r="X50" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>426</v>
+      </c>
+      <c r="J51" t="s">
+        <v>427</v>
+      </c>
+      <c r="K51" t="s">
+        <v>428</v>
+      </c>
+      <c r="L51" t="s">
+        <v>429</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>400</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>430</v>
+      </c>
+      <c r="X51" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>433</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>434</v>
+      </c>
+      <c r="J52" t="s">
+        <v>435</v>
+      </c>
+      <c r="K52" t="s">
+        <v>436</v>
+      </c>
+      <c r="L52" t="s">
+        <v>437</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>400</v>
+      </c>
+      <c r="O52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>422</v>
+      </c>
+      <c r="X52" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>439</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>440</v>
+      </c>
+      <c r="J53" t="s">
+        <v>441</v>
+      </c>
+      <c r="K53" t="s">
+        <v>442</v>
+      </c>
+      <c r="L53" t="s">
+        <v>443</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>400</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>444</v>
+      </c>
+      <c r="X53" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>447</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>448</v>
+      </c>
+      <c r="J54" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" t="s">
+        <v>450</v>
+      </c>
+      <c r="L54" t="s">
+        <v>451</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>400</v>
+      </c>
+      <c r="O54" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>444</v>
+      </c>
+      <c r="X54" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>453</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>454</v>
+      </c>
+      <c r="J55" t="s">
+        <v>455</v>
+      </c>
+      <c r="K55" t="s">
+        <v>456</v>
+      </c>
+      <c r="L55" t="s">
+        <v>457</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>458</v>
+      </c>
+      <c r="O55" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>459</v>
+      </c>
+      <c r="X55" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>462</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>463</v>
+      </c>
+      <c r="J56" t="s">
+        <v>464</v>
+      </c>
+      <c r="K56" t="s">
+        <v>465</v>
+      </c>
+      <c r="L56" t="s">
+        <v>466</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>458</v>
+      </c>
+      <c r="O56" t="s">
+        <v>68</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>467</v>
+      </c>
+      <c r="X56" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>470</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>471</v>
+      </c>
+      <c r="J57" t="s">
+        <v>472</v>
+      </c>
+      <c r="K57" t="s">
+        <v>473</v>
+      </c>
+      <c r="L57" t="s">
+        <v>474</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>475</v>
+      </c>
+      <c r="X57" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>478</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>479</v>
+      </c>
+      <c r="J58" t="s">
+        <v>480</v>
+      </c>
+      <c r="K58" t="s">
+        <v>481</v>
+      </c>
+      <c r="L58" t="s">
+        <v>482</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>483</v>
+      </c>
+      <c r="O58" t="s">
+        <v>68</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>484</v>
+      </c>
+      <c r="X58" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>487</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>488</v>
+      </c>
+      <c r="J59" t="s">
+        <v>489</v>
+      </c>
+      <c r="K59" t="s">
+        <v>490</v>
+      </c>
+      <c r="L59" t="s">
+        <v>491</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>492</v>
+      </c>
+      <c r="O59" t="s">
+        <v>493</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>494</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>495</v>
+      </c>
+      <c r="J60" t="s">
+        <v>496</v>
+      </c>
+      <c r="K60" t="s">
+        <v>497</v>
+      </c>
+      <c r="L60" t="s">
+        <v>498</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>499</v>
+      </c>
+      <c r="O60" t="s">
+        <v>199</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>500</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>501</v>
+      </c>
+      <c r="J61" t="s">
+        <v>502</v>
+      </c>
+      <c r="K61" t="s">
+        <v>503</v>
+      </c>
+      <c r="L61" t="s">
+        <v>504</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>499</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>505</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>506</v>
+      </c>
+      <c r="J62" t="s">
+        <v>507</v>
+      </c>
+      <c r="K62" t="s">
+        <v>508</v>
+      </c>
+      <c r="L62" t="s">
+        <v>509</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>510</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>511</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>512</v>
+      </c>
+      <c r="J63" t="s">
+        <v>513</v>
+      </c>
+      <c r="K63" t="s">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s">
+        <v>515</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>510</v>
+      </c>
+      <c r="O63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>516</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>517</v>
+      </c>
+      <c r="J64" t="s">
+        <v>518</v>
+      </c>
+      <c r="K64" t="s">
+        <v>519</v>
+      </c>
+      <c r="L64" t="s">
+        <v>520</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>510</v>
+      </c>
+      <c r="O64" t="s">
+        <v>493</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>521</v>
+      </c>
+      <c r="X64" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_438.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_438.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="819">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,126 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r609572121-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>55704</t>
+  </si>
+  <si>
+    <t>11726175</t>
+  </si>
+  <si>
+    <t>609572121</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Nice New Hotel</t>
+  </si>
+  <si>
+    <t>Large, clean room.  Outside of downtown Houston.  Staff was friendly &amp; helpful.  Breakfast was good.  Was just an overnight to break up a long drive so we didn't do anything in Houston, but we were happy with the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Large, clean room.  Outside of downtown Houston.  Staff was friendly &amp; helpful.  Breakfast was good.  Was just an overnight to break up a long drive so we didn't do anything in Houston, but we were happy with the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r600622566-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>600622566</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Cool Room</t>
+  </si>
+  <si>
+    <t>The room was very spacious, well decorated, very comfortable and the A/C worked very well.  I would have loved to have stayed another day if I had the time. The lobby was great for meeting friends and have a cocktail or two.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded July 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2018</t>
+  </si>
+  <si>
+    <t>The room was very spacious, well decorated, very comfortable and the A/C worked very well.  I would have loved to have stayed another day if I had the time. The lobby was great for meeting friends and have a cocktail or two.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r606613641-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>606613641</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>New, Clean Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here in July for a nearby family wedding.  Hotel is new and clean and easily accessed from the freeway.  Nice breakfast included in stay.  Workout facilities are very nice.  Didn’t use the indoor pool but one is available.Happy hour in their lobby bar at 5:00.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed here in July for a nearby family wedding.  Hotel is new and clean and easily accessed from the freeway.  Nice breakfast included in stay.  Workout facilities are very nice.  Didn’t use the indoor pool but one is available.Happy hour in their lobby bar at 5:00.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r602283259-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>602283259</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Awesome stay!</t>
+  </si>
+  <si>
+    <t>Extremely helpful staff!  Super clean!  Will definitely return when in this area!  I even left clothes in the room when departing and they had them waiting when I returned to pick them up days later.  Also used the meeting room and it was awesome!MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded August 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2018</t>
+  </si>
+  <si>
+    <t>Extremely helpful staff!  Super clean!  Will definitely return when in this area!  I even left clothes in the room when departing and they had them waiting when I returned to pick them up days later.  Also used the meeting room and it was awesome!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r600966574-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
-    <t>55704</t>
-  </si>
-  <si>
-    <t>11726175</t>
-  </si>
-  <si>
     <t>600966574</t>
   </si>
   <si>
@@ -171,42 +279,12 @@
     <t>The lobby is very modern and well set up - I thought I was in another country; the breakfast buffet was varied with a lot of items; the room was immaculate and well laid out; the bed was very comfortable and had lots of pillows.  It is located on Highway 290 (under construction) and you need to access the hotel by going into the parking lot for Goodwill and proceeding past it to access the hotel.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
     <t>The lobby is very modern and well set up - I thought I was in another country; the breakfast buffet was varied with a lot of items; the room was immaculate and well laid out; the bed was very comfortable and had lots of pillows.  It is located on Highway 290 (under construction) and you need to access the hotel by going into the parking lot for Goodwill and proceeding past it to access the hotel.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r600622566-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
-  </si>
-  <si>
-    <t>600622566</t>
-  </si>
-  <si>
-    <t>07/28/2018</t>
-  </si>
-  <si>
-    <t>Cool Room</t>
-  </si>
-  <si>
-    <t>The room was very spacious, well decorated, very comfortable and the A/C worked very well.  I would have loved to have stayed another day if I had the time. The lobby was great for meeting friends and have a cocktail or two.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>The room was very spacious, well decorated, very comfortable and the A/C worked very well.  I would have loved to have stayed another day if I had the time. The lobby was great for meeting friends and have a cocktail or two.More</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r599432026-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -222,18 +300,60 @@
     <t>wonderful place! was a little tricky to find but the hotel itself was absolutely wonderful,  the hotel staff was very friendly and every thing was clean! great value!! highly recommend this hotel for anyone!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded July 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2018</t>
   </si>
   <si>
     <t>wonderful place! was a little tricky to find but the hotel itself was absolutely wonderful,  the hotel staff was very friendly and every thing was clean! great value!! highly recommend this hotel for anyone!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r597705516-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>597705516</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Ok Place Accepts pets</t>
+  </si>
+  <si>
+    <t>Hotel has a new look to it but I think it is a face lift on an older hotel and not really a new hotel.  There was construction in front of the hotel and it would have been nice to get that information in my online confirmation or a heads up in an email since it was difficult at night to find where to drive into from the street.  It is behind a eating place and near Goodwill parking lot.  We had a pet and there is no grass area to take your pet for a walk.  There are very small grass areas but nothing that could be considered a real designated place to walk the dog.  The staff was ok and the room was ok.  Everything worked fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded July 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2018</t>
+  </si>
+  <si>
+    <t>Hotel has a new look to it but I think it is a face lift on an older hotel and not really a new hotel.  There was construction in front of the hotel and it would have been nice to get that information in my online confirmation or a heads up in an email since it was difficult at night to find where to drive into from the street.  It is behind a eating place and near Goodwill parking lot.  We had a pet and there is no grass area to take your pet for a walk.  There are very small grass areas but nothing that could be considered a real designated place to walk the dog.  The staff was ok and the room was ok.  Everything worked fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r597212679-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>597212679</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Best ever</t>
+  </si>
+  <si>
+    <t>I left an item in the room.  The cleaning staff found it an reported it immediately.  I was therefore able to return quickly and retrieve the left item. That Item was a BiPAP machine with is important to my health and needed every night.  Cannot express how thankful I am to the entire staff to get that back quickly!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I left an item in the room.  The cleaning staff found it an reported it immediately.  I was therefore able to return quickly and retrieve the left item. That Item was a BiPAP machine with is important to my health and needed every night.  Cannot express how thankful I am to the entire staff to get that back quickly!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r592842187-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -303,6 +423,54 @@
     <t>This LaQuinta was very close to family which is why I picked it. The staff are all welcoming and greet you with a smile. They are helpful and knowledgeable. The free breakfast was typical -- nothing special, but nothing bad. But then... I'm not a typical breakfast person either! I was much happier with hotel breakfasts in Europe than in the U.S. The downside is the thin walls - I could hear everything around me. Also, water pressure low. Getting around from this location is difficult, but maybe once all the construction is done it will be easier.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r591066667-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>591066667</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Nothing too special, but solid place to stay. Friendly staff, clean rooms, but nothing to give it the "wow" factor. The fact there is only one entrance/exit was a little annoying - not the hotel's fault, that's due to lack of city planning.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Nothing too special, but solid place to stay. Friendly staff, clean rooms, but nothing to give it the "wow" factor. The fact there is only one entrance/exit was a little annoying - not the hotel's fault, that's due to lack of city planning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r590064325-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>590064325</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Had confirmed reservation, overbooked</t>
+  </si>
+  <si>
+    <t>Had a confirmed reservation for after a baseball game, made ahead of time. Got notified on my way into town that they were overbooked, no room for us tonight. Sorry service. Hard to rebook at the last minute. Won't be trying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Had a confirmed reservation for after a baseball game, made ahead of time. Got notified on my way into town that they were overbooked, no room for us tonight. Sorry service. Hard to rebook at the last minute. Won't be trying again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r589704746-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -351,6 +519,27 @@
     <t>If you are looking for an awesome place to stay  - whether for business or leisure - I highly recommend this hotel. The lobby is modern and clean and the bar adds a great touch. The room was amazing for the price and we slept as if we were at home. We will definitely stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r587322584-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>587322584</t>
+  </si>
+  <si>
+    <t>Detained for a minute</t>
+  </si>
+  <si>
+    <t>Although mechanical problems of the elevator detained me for awhile, I would rate my stay as excellent because of what happened afterwards.  With that being said, I would definitely stay again because of the hotel appearance which was awesome and the professionalism of the staff: Jasmine, Sonya, Jackie and the young lady who managed the bar area (I am sorry I can not remember her name).MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Although mechanical problems of the elevator detained me for awhile, I would rate my stay as excellent because of what happened afterwards.  With that being said, I would definitely stay again because of the hotel appearance which was awesome and the professionalism of the staff: Jasmine, Sonya, Jackie and the young lady who managed the bar area (I am sorry I can not remember her name).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r586419045-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -375,6 +564,45 @@
     <t>Even though we only stayed overnight, it was a good nights sleep. The breakfast the next morning was good as well. I would stay at this location again only because it was 30 minutes away from our destination. The construction around the area was distracting but once its complete a good spot to stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r582733653-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>582733653</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r582763258-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>582763258</t>
+  </si>
+  <si>
+    <t>Very Modern and Clean</t>
+  </si>
+  <si>
+    <t>I suggest the La Quinta Inn and Suites due to the new modern style look and up to date theme. Awesome free coffee and breakfast. My stay was very peaceful and quite. Hotel stay should always be up to date and modern. Great La Quinta Inn and Suites has joined the movement of modern style.MoreShow less</t>
+  </si>
+  <si>
+    <t>I suggest the La Quinta Inn and Suites due to the new modern style look and up to date theme. Awesome free coffee and breakfast. My stay was very peaceful and quite. Hotel stay should always be up to date and modern. Great La Quinta Inn and Suites has joined the movement of modern style.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r582549228-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -390,15 +618,6 @@
     <t>Very Friendly and very clean and nice rooms.   Jackie greeted us and she is one of the BEST!!!!   We came in a middle of a huge storm in Houston and she was so nice with all of us and quickly got us checked in and to our rooms.   I was traveling with a business associate who was not feeling too well and she got him checked in very quickly so he could get to his room.   She was so kind to all of us checking in.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded May 26, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 26, 2018</t>
-  </si>
-  <si>
     <t>Very Friendly and very clean and nice rooms.   Jackie greeted us and she is one of the BEST!!!!   We came in a middle of a huge storm in Houston and she was so nice with all of us and quickly got us checked in and to our rooms.   I was traveling with a business associate who was not feeling too well and she got him checked in very quickly so he could get to his room.   She was so kind to all of us checking in.More</t>
   </si>
   <si>
@@ -447,6 +666,42 @@
     <t>I repeat, I repeat, make sure your info is taken down correctly and that they do not book you for the wrong address.  When I called the physical location I planned on staying to confirm my reservation, they didn't see the one Reservations Hotline supposedly booked so I went ahead and booked directly with the Hotel location I intended on staying. The day of check in, I checked to see if I had an email confirmation for my reservation, but I didn't. Reservations Hotline booked me for the wrong hotel, then charged me 1 night of $107 as a "NO SHOW" while I paid for 2 nights and stayed at the location I intended to. I have called and emailed every other day about receiving my refund and was told someone will be contacting which in the past 3 weeks, I have not heard from the person "that's supposed" to contact me. On top of this, they can't find where they charged me $107 but they found my charge for $216 that I physically paid for, kind of odd if you ask me. They wanted proof so I emailed them proof of my statements but still no response. Maybe my $107 isn't important and don't value me as a customer as I been staying at La Quinta Inn for 4 days a month for the past 2 months but one thing is for sure, they are SADLY mistaken if they...I repeat, I repeat, make sure your info is taken down correctly and that they do not book you for the wrong address.  When I called the physical location I planned on staying to confirm my reservation, they didn't see the one Reservations Hotline supposedly booked so I went ahead and booked directly with the Hotel location I intended on staying. The day of check in, I checked to see if I had an email confirmation for my reservation, but I didn't. Reservations Hotline booked me for the wrong hotel, then charged me 1 night of $107 as a "NO SHOW" while I paid for 2 nights and stayed at the location I intended to. I have called and emailed every other day about receiving my refund and was told someone will be contacting which in the past 3 weeks, I have not heard from the person "that's supposed" to contact me. On top of this, they can't find where they charged me $107 but they found my charge for $216 that I physically paid for, kind of odd if you ask me. They wanted proof so I emailed them proof of my statements but still no response. Maybe my $107 isn't important and don't value me as a customer as I been staying at La Quinta Inn for 4 days a month for the past 2 months but one thing is for sure, they are SADLY mistaken if they think I am going to let this go. Oh and one last thing, in my 15 years of hotel stays, I have NEVER EVER heard or stayed at hotel where you are subject to different rates for each day of your stay when you book for SET DAYS. I mean our jobs don't pay us higher on days due to inflation for that day or due to the supply and demand for that day. And Im pretty sure La Quinta doesn't pay their employees more on those days neither. Unless they take care of these issues, this is most likely be the last time I EVER stay at a La Quinta Inn.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r579086932-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>579086932</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with some hesitation, not having the best experience with La Quinta in the past.However, my fears were put to rest as I had a great stay. This is a newer property, so everything is in great shape.  The property has a work out room free breakfast and great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with some hesitation, not having the best experience with La Quinta in the past.However, my fears were put to rest as I had a great stay. This is a newer property, so everything is in great shape.  The property has a work out room free breakfast and great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r579156438-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>579156438</t>
+  </si>
+  <si>
+    <t>Beautiful, but needs some work</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the décor was very modern and beautiful.  The hotel staff was very nice.  The only thing is that the indoor pool was absolutely FREEZING!  It was a very hot day outside and my family was looking forward to enjoying the pool.  But it was unbearable for each of us.  The indoor pool was one of the main reasons I chose this hotel.  We were very disappointed not to be able to use it.  The breakfast was mediocre.  It is in a good area and very convenient to our needs.  Overall it was a good place to stay, but I just wish the pool and food had been better.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the décor was very modern and beautiful.  The hotel staff was very nice.  The only thing is that the indoor pool was absolutely FREEZING!  It was a very hot day outside and my family was looking forward to enjoying the pool.  But it was unbearable for each of us.  The indoor pool was one of the main reasons I chose this hotel.  We were very disappointed not to be able to use it.  The breakfast was mediocre.  It is in a good area and very convenient to our needs.  Overall it was a good place to stay, but I just wish the pool and food had been better.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r575376267-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -513,6 +768,45 @@
     <t>Hotel was new and very nicely furnished. Front desk personnel very helpful. Room was very clean and comfortable. Breakfast was also good. Only problem was missing the signage to access the hotel. We recommend this to anyone staying in the Cypress area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r572327210-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>572327210</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Great service great time!</t>
+  </si>
+  <si>
+    <t>My time here was nothing, but great and will definitely stay here again.  From the staff to the room everything was up to par and had no issues with this facility.  Clean facility and great staff.  Thanks for the great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>My time here was nothing, but great and will definitely stay here again.  From the staff to the room everything was up to par and had no issues with this facility.  Clean facility and great staff.  Thanks for the great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r570660738-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>570660738</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Brand New La Quinta - Do Not Recommend</t>
+  </si>
+  <si>
+    <t>Shower's terrible design in that you must reach in and get wet when turning on shower water to warm up. No tub. No shower caps.   A/C does not remove humidity in rooms as there are no thresholds on room doors. Feels warmer than should. Other guests complained of same thing.  No bathroom exhaust vent.  Clean rooms. Great breakfast. Friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Shower's terrible design in that you must reach in and get wet when turning on shower water to warm up. No tub. No shower caps.   A/C does not remove humidity in rooms as there are no thresholds on room doors. Feels warmer than should. Other guests complained of same thing.  No bathroom exhaust vent.  Clean rooms. Great breakfast. Friendly staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r569813687-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -525,9 +819,6 @@
     <t>This is a new, very clean, well run LaQuinta.  Right off of route 290.  Many restaurants close by.  Nice place.  I will definitely stay here again if business draws me to the area.  The Daikin plant that I was in town to visit is 8 miles away.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded April 3, 2018</t>
   </si>
   <si>
@@ -546,18 +837,12 @@
     <t>03/24/2018</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
     <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded March 30, 2018</t>
   </si>
   <si>
     <t>Responded March 30, 2018</t>
   </si>
   <si>
-    <t>More</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r567681046-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -576,6 +861,45 @@
     <t>Ended our spring break in Houston. Kemah and Outlet mall. Hotel was prefect compared to other LaQunita I've been too. Clean, quiet, friendly and great service l; breakfast great for the kids. I enjoyed my stay and plan to stay here again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r567181212-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>567181212</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Wedding trip</t>
+  </si>
+  <si>
+    <t>The decor was very pretty, breakfast was just ok lots of carbs, average beds and pillow. There was a bar im the  lobby that was open til 10 which was nice. Very close to resturants and outlet mall. They where very kind to let 8 ladies use the conference room to do our makeup before the wedding for no additional charge. MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>The decor was very pretty, breakfast was just ok lots of carbs, average beds and pillow. There was a bar im the  lobby that was open til 10 which was nice. Very close to resturants and outlet mall. They where very kind to let 8 ladies use the conference room to do our makeup before the wedding for no additional charge. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r567381292-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>567381292</t>
+  </si>
+  <si>
+    <t>LaQuinta Houston Cypress Hotel</t>
+  </si>
+  <si>
+    <t>Extremely clean hotel with great beds and pillows, etc.  Lots of extras like free breakfast, the usual free Wi-Fi, indoor swimming pool, exercise room, etc. Friendly staff, and large lobby and dining area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Extremely clean hotel with great beds and pillows, etc.  Lots of extras like free breakfast, the usual free Wi-Fi, indoor swimming pool, exercise room, etc. Friendly staff, and large lobby and dining area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r565965022-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -615,9 +939,6 @@
     <t>New hotel that is 100% nonsmoking and is very clean. The breakfast is pretty much standard for a La  Quinta but the lady taking care of everything makes it special. A lot of road construction nearby and all over Cypress and Houston. Did not have a lot of water pressure in our room was really the only thing that I could find wrong with this place. Jasmine at the front desk and at manager's reception was a dream come come true. She makes you feel like the hotel was built just for you. Hotel is close to good places to eat and the outlet mall is only a couple of miles away.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded March 11, 2018</t>
   </si>
   <si>
@@ -654,30 +975,69 @@
     <t>The staff is wonderful, the building is clean and new (we watched it being built and were excited that it was coming b/c it is close to our son), the food is average with exception of the coffee. The coffee is HORRIBLE! You should change brands. The water pressure/flow in the bath laboratory is barely a full stream. That and the coffee needs to be improved drastically!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r561610040-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>561610040</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Very Clean and Quiet Hotel</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights here.  It was very quiet for being right off the highway (Hwy 290).  The rooms were clean and everything was fresh when we checked in. Only 2 recommendations for improvement would be better pillows, they bunch up by morning, and some 2 ply toilet paper - other than that it was a very nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights here.  It was very quiet for being right off the highway (Hwy 290).  The rooms were clean and everything was fresh when we checked in. Only 2 recommendations for improvement would be better pillows, they bunch up by morning, and some 2 ply toilet paper - other than that it was a very nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r557994891-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>557994891</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We returned to the La Quinta due to the great service and cleansliness. On our return stay we had another absolutely wonderful experience once again! We Highly recommended the La Quinta Cypress!! We will definitely return to this location next year. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>We returned to the La Quinta due to the great service and cleansliness. On our return stay we had another absolutely wonderful experience once again! We Highly recommended the La Quinta Cypress!! We will definitely return to this location next year. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r557907492-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
     <t>557907492</t>
   </si>
   <si>
-    <t>02/02/2018</t>
-  </si>
-  <si>
     <t>Clean, great location, friendly staff</t>
   </si>
   <si>
     <t>We had to stay last minute. We live nearby but kitchen cabinets being painted and had to stay in hotel due to fumes. Thank goodness La Quinta let us bring our dogs. Continental breakfast a plus since she still had to go to school, work and sports. Only 1 room left when I called with a king bed for 2 adults and a 9 year old...thats why I cannot rate my sleep very highly. Also hotel full with sports and cheer kids and due to rain they were loud and bored even at night. Walls are thin for a new hotel and no fan in bath. I could hear neighbor throwing up for over an hour!!!!  Indoor pool but not heated???  No hot tub. Still good value and very clean and friendly staff. As an interior designer I liked the lobby and rooms but the lobby is soooo bright and glaring even at night. Lots of lights and lots of white. Not sure if they could dim in evening. Would recommend hotel to others esp if have a pet. MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded February 8, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 8, 2018</t>
-  </si>
-  <si>
     <t>We had to stay last minute. We live nearby but kitchen cabinets being painted and had to stay in hotel due to fumes. Thank goodness La Quinta let us bring our dogs. Continental breakfast a plus since she still had to go to school, work and sports. Only 1 room left when I called with a king bed for 2 adults and a 9 year old...thats why I cannot rate my sleep very highly. Also hotel full with sports and cheer kids and due to rain they were loud and bored even at night. Walls are thin for a new hotel and no fan in bath. I could hear neighbor throwing up for over an hour!!!!  Indoor pool but not heated???  No hot tub. Still good value and very clean and friendly staff. As an interior designer I liked the lobby and rooms but the lobby is soooo bright and glaring even at night. Lots of lights and lots of white. Not sure if they could dim in evening. Would recommend hotel to others esp if have a pet. More</t>
   </si>
   <si>
@@ -720,6 +1080,51 @@
     <t>Excellent experience. Good service, great friendly staff, nice bar, and really nice rooms for the price. The hotel was very clean and in a desirable location. Only problem was the choice of breakfast wasn’t the best.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r557266346-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>557266346</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>If a hotel advertised like real estate...</t>
+  </si>
+  <si>
+    <t>Our showers feel like a soft, gentle rain (poor water pressure).  Water temperatures set with the care and safety of our guest in mind (did you really want a hot shower anyway).  When you stay with us, we want you to feel like family and encourage interaction with our other guests (thin wall).  Energy efficient, designated pet area offers privacy for your pet (not lit and isolated behind hotel).  Located in the center of several businesses and restaurants (crazy hard to find entrance).MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Our showers feel like a soft, gentle rain (poor water pressure).  Water temperatures set with the care and safety of our guest in mind (did you really want a hot shower anyway).  When you stay with us, we want you to feel like family and encourage interaction with our other guests (thin wall).  Energy efficient, designated pet area offers privacy for your pet (not lit and isolated behind hotel).  Located in the center of several businesses and restaurants (crazy hard to find entrance).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r556070940-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>556070940</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>New hotel, clean, friendly staff</t>
+  </si>
+  <si>
+    <t>I would stay again. The staff was friendly. Everything was clean. It is a new hotel so it has the new car feel. Hard to find the entrance. I had to circle twice and GPS takes you to the neighborhood behind it...but once we got there it was great. MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>I would stay again. The staff was friendly. Everything was clean. It is a new hotel so it has the new car feel. Hard to find the entrance. I had to circle twice and GPS takes you to the neighborhood behind it...but once we got there it was great. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r554833846-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -795,6 +1200,45 @@
     <t>the hotel was super clean and everything had a modern look, not just the entrance/ lobby area but including the rooms too. all the furniture was updated. would come back to this location in the future. No complaints about the noise either.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r551401794-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>551401794</t>
+  </si>
+  <si>
+    <t>Nice, New and Clean</t>
+  </si>
+  <si>
+    <t>Google doesn't take you right to the door.  Hotel appeared brand new. Rooms were nice and clean, bathroom was clean, wifi was super fast. This hotel is located near the outlet malls, and also has several places for dining in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Google doesn't take you right to the door.  Hotel appeared brand new. Rooms were nice and clean, bathroom was clean, wifi was super fast. This hotel is located near the outlet malls, and also has several places for dining in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r549939599-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>549939599</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Will be back to stay!! Great customer service, friendly, great food, well stocked bar. The outlet mall is just a few blocks away and easy access to many restaurants. Can’t wait until we come back to visit. MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2017</t>
+  </si>
+  <si>
+    <t>Will be back to stay!! Great customer service, friendly, great food, well stocked bar. The outlet mall is just a few blocks away and easy access to many restaurants. Can’t wait until we come back to visit. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r549886692-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -813,9 +1257,6 @@
     <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded December 30, 2017</t>
   </si>
   <si>
-    <t>Responded December 30, 2017</t>
-  </si>
-  <si>
     <t>Hotel looked very new and well kept. Room was spacious, clean and comfortable. Staff was very friendly and accommodating. And room rate made this a great value. Free wifi and breakfast was nice. Good location right off a main highway.More</t>
   </si>
   <si>
@@ -852,6 +1293,48 @@
     <t>Great hotel, well lit parking lot and easy check in. The staff was friendly, this hotel had a bar there also which was nice to go downstairs and have a beer before bed. the breakfast was more than suffice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r548157232-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>548157232</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel / Mediocre Staff</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and offers many amenities. The morning front desk clerk was excellent; however, his co-workers seemed more interested in themselves to actually be of any assistance.   You can tell that much of the staff take pride in their work because they keep the place immaculate, but the ones that you interact with are the ones that make the impression that lasts.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and offers many amenities. The morning front desk clerk was excellent; however, his co-workers seemed more interested in themselves to actually be of any assistance.   You can tell that much of the staff take pride in their work because they keep the place immaculate, but the ones that you interact with are the ones that make the impression that lasts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r547349427-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>547349427</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We stayed two nights at this hotel and will definitely be staying again. There were four adults in the room and we had plenty of space. Beds were very comfortable and the ultimate test of a good hotel, water pressure was perfect. Hotel looks like it’s brand new very clean very nice. Breakfast every morning with coffee 24/7. Staff was very helpful and very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2017</t>
+  </si>
+  <si>
+    <t>We stayed two nights at this hotel and will definitely be staying again. There were four adults in the room and we had plenty of space. Beds were very comfortable and the ultimate test of a good hotel, water pressure was perfect. Hotel looks like it’s brand new very clean very nice. Breakfast every morning with coffee 24/7. Staff was very helpful and very nice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r546326515-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -870,9 +1353,6 @@
     <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded December 16, 2017</t>
   </si>
   <si>
-    <t>Responded December 16, 2017</t>
-  </si>
-  <si>
     <t>I was pleasantly surprised at how nice the hotel was. I had not seen a bar at a La Quinta before. It was nice to have in the evening. It was walking distance to good restaurants, and a very short drive to many othersMore</t>
   </si>
   <si>
@@ -927,27 +1407,63 @@
     <t>Great experience overall but you have drive through the Goodwill entrance to get to hotel and take frontage road to get around area. Very trafficked due to the businesses you have to pass through for reaching hotel lobby.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r543068829-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>543068829</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Great hotel but driveway could be better</t>
+  </si>
+  <si>
+    <t>Lot's of road construction and the entrance to the hotel is a little hidden.  Best to head to the Goodwill Thrift Store as the hotel is right next door and the parking lots adjoin.  Hotel itself is pretty new and very clean.  Room was a bit smaller than I had expected but nothing too major.  It was clean and the bed was super comfortable.  Staff was very friendly and I would stay there again.  Oh, and Buc'ees is within walking distance!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Lot's of road construction and the entrance to the hotel is a little hidden.  Best to head to the Goodwill Thrift Store as the hotel is right next door and the parking lots adjoin.  Hotel itself is pretty new and very clean.  Room was a bit smaller than I had expected but nothing too major.  It was clean and the bed was super comfortable.  Staff was very friendly and I would stay there again.  Oh, and Buc'ees is within walking distance!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r542327132-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>542327132</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>Overall we had a great stay and the staff was amazing!  The room was nice, clean, and comfortable.  The breakfast was okay as well.  Only downfall is the walls are pretty thin so you can hear everything going on in the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Overall we had a great stay and the staff was amazing!  The room was nice, clean, and comfortable.  The breakfast was okay as well.  Only downfall is the walls are pretty thin so you can hear everything going on in the hotel. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r542362946-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
     <t>542362946</t>
   </si>
   <si>
-    <t>11/20/2017</t>
-  </si>
-  <si>
     <t>weekend staycation</t>
   </si>
   <si>
     <t>I booked as a 1 night staycation from the kids, but was pleasantly surprised by every aspect of this hotel.  Felt as if we were in a luxury resort. Proposed to my lady and the staff was very helpful with a few special request I made.  Enabled me to make last minute plans flow seamlessly.  I really appreciation everything the staff did in order to help me make a special night, that much better.MoreShow less</t>
   </si>
   <si>
-    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded November 22, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 22, 2017</t>
-  </si>
-  <si>
     <t>I booked as a 1 night staycation from the kids, but was pleasantly surprised by every aspect of this hotel.  Felt as if we were in a luxury resort. Proposed to my lady and the staff was very helpful with a few special request I made.  Enabled me to make last minute plans flow seamlessly.  I really appreciation everything the staff did in order to help me make a special night, that much better.More</t>
   </si>
   <si>
@@ -990,9 +1506,6 @@
     <t>Services were excellent. Ideal location close to campus. Lots of restaurants in the area to choose from. Close to a strip mall if you need additional services. I would recommend this hotel as it is accessible to Hwy 290, about 15 miles from campus.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded November 6, 2017</t>
   </si>
   <si>
@@ -1002,6 +1515,54 @@
     <t>Services were excellent. Ideal location close to campus. Lots of restaurants in the area to choose from. Close to a strip mall if you need additional services. I would recommend this hotel as it is accessible to Hwy 290, about 15 miles from campus.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r537478928-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>537478928</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>TOO GOOD TO BE TRUE</t>
+  </si>
+  <si>
+    <t>This is our 3rd or 4th stay in a LA QUINTA normally we stay in Holiday Inn thia.motel by far is better with showers that u have.makes it better for me ro step in and hold on and not slip. It was clean also especially comode which to me can be the most unsanitary.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded November 6, 2017</t>
+  </si>
+  <si>
+    <t>This is our 3rd or 4th stay in a LA QUINTA normally we stay in Holiday Inn thia.motel by far is better with showers that u have.makes it better for me ro step in and hold on and not slip. It was clean also especially comode which to me can be the most unsanitary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r536993813-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>536993813</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Nice property</t>
+  </si>
+  <si>
+    <t>My wife and I were in town for a graduation.  Rooms were very nice and clean.  Breakfast was adequate.   The property overall was very nice.   The parking lot is very confusing.  You have to go through two other parking lots to get to the hotel.   MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>General M, Front Office Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I were in town for a graduation.  Rooms were very nice and clean.  Breakfast was adequate.   The property overall was very nice.   The parking lot is very confusing.  You have to go through two other parking lots to get to the hotel.   More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r536637055-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1623,39 @@
     <t>I am delighted to give this La Quinta Inn &amp; Suites the highest rating.  My wife and I were displaced from our home of 26 years due to Hurricane Harvey.  The employees and management of La Quinta have gone out of their way to ease us into a home away from home.  I would like to especially thank Alanis, Anderson, Jamel, and last but not least Diamond, for their warm and welcoming attitudes.  They went out of their way to make our misfortune into a pleasant experience.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r534183529-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>534183529</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r533595887-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>533595887</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>Almost new hotel in a very sad location. You get to it by driving through a Goodwill Store parking lot. "Curb appeal" is zero! Rooms are nice, clean, and everything works. When all is quiet and the A/C unit in the room below turns on there's a very annoying rumble. The free breakfast is worth every penny. Food was very sad.  MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Manager at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Almost new hotel in a very sad location. You get to it by driving through a Goodwill Store parking lot. "Curb appeal" is zero! Rooms are nice, clean, and everything works. When all is quiet and the A/C unit in the room below turns on there's a very annoying rumble. The free breakfast is worth every penny. Food was very sad.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r532565472-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1728,48 @@
     <t>I have stayed at many and the modern quality of this very new and beautiful property property was far above what we have ever experienced at any La Quinta. We have stayed at much higher-priced accommodations with the same design and amenities.  Attentive and friendly staff at were working hard to make it a great stay for everyone.  Beds were comfortable room was quiet. The technology in the conference room worked perfectly for our board meeting, and the controls on the big screen were intuitive. The HDMI direct connection worked beautifully. Will definitely recommend this property to anyone needing to stay in the Cypress area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r527736806-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>527736806</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Nice and new</t>
+  </si>
+  <si>
+    <t>The hotel is relatively new which made it nice. The beds were very comfortable. Service was very good. The showers were hot. Plenty of toiletries. Microwave and refrigerator were nice to have in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is relatively new which made it nice. The beds were very comfortable. Service was very good. The showers were hot. Plenty of toiletries. Microwave and refrigerator were nice to have in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r523754987-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>523754987</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Excellence</t>
+  </si>
+  <si>
+    <t>This new hotel is clean, has a large welcoming public space, and excellent service. The personnel are friendly and helpful. The rooms are spacious and well maintained. The breakfast was better than most and there is easy access to several restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>This new hotel is clean, has a large welcoming public space, and excellent service. The personnel are friendly and helpful. The rooms are spacious and well maintained. The breakfast was better than most and there is easy access to several restaurants.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r519847267-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -1143,9 +1779,6 @@
     <t>08/31/2017</t>
   </si>
   <si>
-    <t>Great Hotel</t>
-  </si>
-  <si>
     <t>Quiet and comfortable.The cleanliness of the room was outstanding. My only grip was breakfast. I'm asking all of LaQuinta management to please please stop it with the powered eggs. I'm sure your corporation can do better. MoreShow less</t>
   </si>
   <si>
@@ -1203,6 +1836,48 @@
     <t>overall hotel nice and clean, just terrible customer service information. I am just upset on the price I had to pay. Hotel was very nice.  I booked hotel for Cypress with a 68.00 rate and was charges a 84.00 rate. due to agent mistake and no one cared or did anything about it. it was not in my budget and its like i told the story 3 times about agent and nothing was doneMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r511206734-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>511206734</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Quinta inn Cypress</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!! Location, service and value point important that moment take decide reserve hotel. Rooms, cleanliness, breakfast, and pool is perfect some days stay in the area. By family or business have all required.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!! Location, service and value point important that moment take decide reserve hotel. Rooms, cleanliness, breakfast, and pool is perfect some days stay in the area. By family or business have all required.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r509035380-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>509035380</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Outstanding customer service!!!</t>
+  </si>
+  <si>
+    <t>I have a son checking in to college in a couple of weeks and I'll be staying in the area to drop him off,  so I wanted to know quite a few details about the hotel. Chantel assisted me on the phone, was extremely patient as she handled my call and other customers, and provided me with a wonderful customer service experience. I wish all employees were like her! MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>I have a son checking in to college in a couple of weeks and I'll be staying in the area to drop him off,  so I wanted to know quite a few details about the hotel. Chantel assisted me on the phone, was extremely patient as she handled my call and other customers, and provided me with a wonderful customer service experience. I wish all employees were like her! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r507983724-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -1269,6 +1944,30 @@
     <t>Stay was very enjoyable &amp; inviting. Staff was very warm and inviting. The breakfast was delightful . In addition I thoroughly enjoyed the bar and the atmosphere . The room was new and fresh and up to date. In all my experience at the laquinta inn &amp; suites cypress was very wonderful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r505655362-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>505655362</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r505297470-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>505297470</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r504993703-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -1284,12 +1983,6 @@
     <t>I love this hotel. Its very clean and staff is friendly. The rooms were nice size, came with ice box and microwave. Restaurants and stores about 5-10 mins away. Everything was prefect. I would most definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>Management response:Responded July 25, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 25, 2017</t>
-  </si>
-  <si>
     <t>I love this hotel. Its very clean and staff is friendly. The rooms were nice size, came with ice box and microwave. Restaurants and stores about 5-10 mins away. Everything was prefect. I would most definitely stay here again.More</t>
   </si>
   <si>
@@ -1335,27 +2028,66 @@
     <t>Nice and new.  Very clean and fresh. Room was in order and ready upon arrival.  Hotel has amenities that you find in some of the more upscale and pricey properties. Breakfast was not too bad.  Awkward to get to from service road.  Overall, nice spot.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r502649253-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>502649253</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Very nice family and pet friendly</t>
+  </si>
+  <si>
+    <t>Booked this for my daughter and her family. The staff were amazing the breakfast was great and checkout was 12. Definitely a great place. Indoor pool and close to a wedding venue. We will be using this hotel more often and totally recommend MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Booked this for my daughter and her family. The staff were amazing the breakfast was great and checkout was 12. Definitely a great place. Indoor pool and close to a wedding venue. We will be using this hotel more often and totally recommend More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r502374461-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>502374461</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Cypress TX Break</t>
+  </si>
+  <si>
+    <t>New Hotel, nice accommodations and will return. Prefer LaQuinta over any other Hotel while traveling as well. If your like us travel with our furry pet family and it takes the work out of looking for places to stay.  Thanks LaQuintaMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>New Hotel, nice accommodations and will return. Prefer LaQuinta over any other Hotel while traveling as well. If your like us travel with our furry pet family and it takes the work out of looking for places to stay.  Thanks LaQuintaMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r502374602-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
     <t>502374602</t>
   </si>
   <si>
-    <t>07/15/2017</t>
-  </si>
-  <si>
     <t>Pleasant Experience</t>
   </si>
   <si>
     <t>Staff and atmosphere very pleasant. Clean, warm, new facilities and room. Close to outlets and shopping area, a very nice location. Hot breakfast provided!Felt very calm and peaceful throughout the facilities. A seafood restaurant within walking distance made the experience even more enjoyable.MoreShow less</t>
   </si>
   <si>
-    <t>Management response:Responded July 18, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 18, 2017</t>
-  </si>
-  <si>
     <t>Staff and atmosphere very pleasant. Clean, warm, new facilities and room. Close to outlets and shopping area, a very nice location. Hot breakfast provided!Felt very calm and peaceful throughout the facilities. A seafood restaurant within walking distance made the experience even more enjoyable.More</t>
   </si>
   <si>
@@ -1392,9 +2124,6 @@
     <t>We went to a wedding at Lindsey Lakes and this hotel was perfect location to the venue.  Very nice hotel, modern and was very clean. Another plus was the hotel was right by Buccees so easy for food and drinks.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded July 5, 2017</t>
   </si>
   <si>
@@ -1404,6 +2133,48 @@
     <t>We went to a wedding at Lindsey Lakes and this hotel was perfect location to the venue.  Very nice hotel, modern and was very clean. Another plus was the hotel was right by Buccees so easy for food and drinks.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r496683124-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>496683124</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Reunion Night</t>
+  </si>
+  <si>
+    <t>We stayed after a reunion of Cy-Fair '77 classmates and it was Great! The staff was super and the accommodations were very nice. Good breakfast, served late. We really enjoyed our stay and will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>We stayed after a reunion of Cy-Fair '77 classmates and it was Great! The staff was super and the accommodations were very nice. Good breakfast, served late. We really enjoyed our stay and will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r496408881-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>496408881</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Courteous staff and comfortable room.</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay from beginning to end. Parking is great, rooms are comfortable, wifi was excellent, breakfast was a bonus, and clean place. The staff was very accommodating and friendly. Air conditioner was easy to control, allowing the room to be cool even when the air wasn't on. I will come back and share with others.MoreShow less</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay from beginning to end. Parking is great, rooms are comfortable, wifi was excellent, breakfast was a bonus, and clean place. The staff was very accommodating and friendly. Air conditioner was easy to control, allowing the room to be cool even when the air wasn't on. I will come back and share with others.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r492645437-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -1479,6 +2250,39 @@
     <t>Only 5 months old, this is a very nice hotel. The staff was excellent, facilities pristine, and the beds were perfect...not too soft like many these days. Don't follow Google map...just take the outer road. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r491657397-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>491657397</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>The staff was excellent, friendly and even contacted me after check in to make sure the room was acceptable.  The entrance is a little confusing but worth the find.  The room was clean and orderly and comfortable.  The view was not that great and looked out into a business area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was excellent, friendly and even contacted me after check in to make sure the room was acceptable.  The entrance is a little confusing but worth the find.  The room was clean and orderly and comfortable.  The view was not that great and looked out into a business area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r483287215-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>483287215</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r491658185-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -1497,9 +2301,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r491657936-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -1533,6 +2334,48 @@
     <t>Nice hotel but very difficult to get to due to lack of designated entrance.   Breakfast selections could be a little better and no one likes microwaved eggs, but this is standard for La Quinta.   Best Western has a much better breakfast but this hotel was close to my business for the day.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r464801429-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>464801429</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Mixed Review</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel for a wedding where we also had attended a reception in the lobby "bar". The staff was super friendly and very attentive. And the common area served a nice continental breakfast in the morning and doubled as the bar after hours. The rooms although clean and well kept, unfortunately had paper thin walls! It was not only the 1 inch space under the door that was a problem, it was walls themselves. It honestly sounded like the couple next door were having a conversation with us in our room. This became a bigger issue when the coughing and snoring began at night.... needless to say, I am looking forward to going home for a good nights sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston Cypress, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel for a wedding where we also had attended a reception in the lobby "bar". The staff was super friendly and very attentive. And the common area served a nice continental breakfast in the morning and doubled as the bar after hours. The rooms although clean and well kept, unfortunately had paper thin walls! It was not only the 1 inch space under the door that was a problem, it was walls themselves. It honestly sounded like the couple next door were having a conversation with us in our room. This became a bigger issue when the coughing and snoring began at night.... needless to say, I am looking forward to going home for a good nights sleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r464570606-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>464570606</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Very Disappointing New Hotel</t>
+  </si>
+  <si>
+    <t>We were happy that this LQ opened 1 mile from our daughter so that we don't have to go to the hotels at 290/1960. Very disappointed in the hotel.  The staff was great but the room, amenities and food left a lot to be desired. We won't stay here again. The room and decor in the hotel is very contemporary and cold. The bed was fine but the two chairs were awful. The desk chair really hurt my back.  The other chair was armless and had no table for a drink. (We had to use an upside-down wastebasket.)The TV should have been larger. Lighting was good in the bathroom, but you have to get in the shower to turn it on and it's also slippery. The breakfast selection was pretty bleak and not replenished often enough. When my husband came down to eat, there were no bagels or bacon, but they were there after he ate. It is hard to find the access to the hotel, since it's not on a Main Street and there is no sign. There are several restaurants within walking distance, but no sidewalks and access.  You have to drive west, north and back to Mueschke to go to them. It's also not a great value. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were happy that this LQ opened 1 mile from our daughter so that we don't have to go to the hotels at 290/1960. Very disappointed in the hotel.  The staff was great but the room, amenities and food left a lot to be desired. We won't stay here again. The room and decor in the hotel is very contemporary and cold. The bed was fine but the two chairs were awful. The desk chair really hurt my back.  The other chair was armless and had no table for a drink. (We had to use an upside-down wastebasket.)The TV should have been larger. Lighting was good in the bathroom, but you have to get in the shower to turn it on and it's also slippery. The breakfast selection was pretty bleak and not replenished often enough. When my husband came down to eat, there were no bagels or bacon, but they were there after he ate. It is hard to find the access to the hotel, since it's not on a Main Street and there is no sign. There are several restaurants within walking distance, but no sidewalks and access.  You have to drive west, north and back to Mueschke to go to them. It's also not a great value. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r491658952-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
   </si>
   <si>
@@ -1588,6 +2431,48 @@
   </si>
   <si>
     <t>I stayed here the week of the Super Bowl.  The managers seemed very busy with the high number of guests due to the Super Bowl, that said, the staff working at the front desk were amazing!  From giving directions to accommodations, they went above and beyond to help me out.  The rooms were clean and the staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r491657401-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>491657401</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Very Good Stay</t>
+  </si>
+  <si>
+    <t>Very nice hotel, very clean, nice gym. The breakfast was very nice and the location is excellent.  Downside: Rooms are not insulated so you can hear everything in the next room. Also, the parking lot is like a maze to get to.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55704-d11726175-r451435693-La_Quinta_Inn_Suites_Houston_Cypress-Cypress_Texas.html</t>
+  </si>
+  <si>
+    <t>451435693</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Opened too soon and not willing to help the local community</t>
+  </si>
+  <si>
+    <t>Open but still working on it, installing fire extinguishers while there, plumbing issues, and not willing to help out local community member with rate due to having to stay because of water leak at home MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Open but still working on it, installing fire extinguishers while there, plumbing issues, and not willing to help out local community member with rate due to having to stay because of water leak at home More</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +3007,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -2131,20 +3016,20 @@
         <v>52</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -2196,10 +3081,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2221,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2243,7 +3128,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -2252,53 +3137,43 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2314,7 +3189,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -2323,25 +3198,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2363,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2385,7 +3260,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2394,25 +3269,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2421,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -2434,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -2456,7 +3331,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2465,34 +3340,34 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -2505,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -2527,7 +3402,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2536,53 +3411,47 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -2598,52 +3467,62 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>108</v>
-      </c>
-      <c r="X9" t="s">
-        <v>109</v>
-      </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -2659,7 +3538,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2668,28 +3547,28 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
         <v>5</v>
@@ -2708,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -2730,7 +3609,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2739,25 +3618,25 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2779,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
         <v>126</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -2801,43 +3680,43 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
         <v>128</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>129</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>130</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>131</v>
       </c>
-      <c r="L12" t="s">
-        <v>132</v>
-      </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2850,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -2872,7 +3751,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2881,25 +3760,25 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2911,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
         <v>142</v>
@@ -2954,30 +3833,20 @@
         <v>147</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -3025,31 +3894,41 @@
         <v>155</v>
       </c>
       <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
-        <v>139</v>
-      </c>
-      <c r="O15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -3065,7 +3944,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -3074,53 +3953,43 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -3136,7 +4005,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -3145,25 +4014,25 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3185,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -3207,7 +4076,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -3216,26 +4085,28 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
-      </c>
-      <c r="K18" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
         <v>5</v>
@@ -3254,13 +4125,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
@@ -3276,7 +4147,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3285,53 +4156,51 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
-      </c>
-      <c r="K19" t="s">
-        <v>183</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -3347,37 +4216,37 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>186</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" t="s">
-        <v>189</v>
-      </c>
-      <c r="L20" t="s">
-        <v>190</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>169</v>
-      </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
         <v>5</v>
@@ -3396,13 +4265,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="X20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
@@ -3418,7 +4287,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3427,31 +4296,31 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
         <v>5</v>
@@ -3467,13 +4336,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
+        <v>187</v>
+      </c>
+      <c r="X21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y21" t="s">
         <v>200</v>
-      </c>
-      <c r="X21" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="22">
@@ -3489,62 +4358,62 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
         <v>203</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>204</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>205</v>
       </c>
-      <c r="K22" t="s">
-        <v>206</v>
-      </c>
-      <c r="L22" t="s">
-        <v>207</v>
-      </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
         <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="X22" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -3560,62 +4429,52 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>212</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
         <v>213</v>
       </c>
-      <c r="J23" t="s">
+      <c r="X23" t="s">
         <v>214</v>
       </c>
-      <c r="K23" t="s">
+      <c r="Y23" t="s">
         <v>215</v>
-      </c>
-      <c r="L23" t="s">
-        <v>216</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>217</v>
-      </c>
-      <c r="O23" t="s">
-        <v>68</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
-      <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
-        <v>218</v>
-      </c>
-      <c r="X23" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -3631,7 +4490,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3640,37 +4499,33 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3680,13 +4535,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
@@ -3702,7 +4557,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3711,37 +4566,37 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3751,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="X25" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y25" t="s">
         <v>227</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -3773,48 +4628,62 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>233</v>
+      </c>
+      <c r="X26" t="s">
         <v>234</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="Y26" t="s">
         <v>235</v>
-      </c>
-      <c r="J26" t="s">
-        <v>236</v>
-      </c>
-      <c r="K26" t="s">
-        <v>237</v>
-      </c>
-      <c r="L26" t="s">
-        <v>238</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>239</v>
-      </c>
-      <c r="X26" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="27">
@@ -3830,7 +4699,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3839,53 +4708,43 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="X27" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3901,7 +4760,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3910,53 +4769,53 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="X28" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="Y28" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
@@ -3972,7 +4831,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3981,25 +4840,25 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4021,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="X29" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="Y29" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
@@ -4043,7 +4902,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -4052,49 +4911,53 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
         <v>261</v>
       </c>
-      <c r="K30" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30" t="s">
-        <v>269</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>255</v>
-      </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>220</v>
+      </c>
+      <c r="X30" t="s">
+        <v>221</v>
+      </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
@@ -4110,7 +4973,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -4119,25 +4982,25 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O31" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4159,13 +5022,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="X31" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
@@ -4181,7 +5044,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -4190,28 +5053,26 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
-      </c>
-      <c r="K32" t="s">
-        <v>281</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
         <v>5</v>
@@ -4230,13 +5091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
@@ -4252,7 +5113,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -4261,53 +5122,53 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="X33" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
@@ -4323,7 +5184,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4332,37 +5193,37 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="O34" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -4372,13 +5233,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="X34" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="Y34" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
@@ -4394,7 +5255,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4403,32 +5264,34 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="J35" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4441,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="X35" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
@@ -4463,7 +5326,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4472,28 +5335,28 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
         <v>5</v>
@@ -4512,13 +5375,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="X36" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="Y36" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
@@ -4534,7 +5397,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4543,31 +5406,31 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
         <v>5</v>
@@ -4583,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="X37" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="Y37" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
@@ -4605,7 +5468,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4614,53 +5477,53 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="J38" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="O38" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="X38" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="Y38" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39">
@@ -4676,7 +5539,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4685,36 +5548,34 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="J39" t="s">
-        <v>338</v>
-      </c>
-      <c r="K39" t="s"/>
+        <v>321</v>
+      </c>
+      <c r="K39" t="s">
+        <v>322</v>
+      </c>
       <c r="L39" t="s">
-        <v>176</v>
+        <v>323</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="O39" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4723,13 +5584,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="X39" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="Y39" t="s">
-        <v>179</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40">
@@ -4745,7 +5606,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4754,25 +5615,25 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="J40" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="O40" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4794,13 +5655,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="X40" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y40" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41">
@@ -4816,7 +5677,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4825,53 +5686,53 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="J41" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O41" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
         <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="X41" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="Y41" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42">
@@ -4887,7 +5748,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4896,34 +5757,34 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="J42" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O42" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -4936,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="X42" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="Y42" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43">
@@ -4958,7 +5819,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4967,25 +5828,25 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="J43" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="L43" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5007,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="X43" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="Y43" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44">
@@ -5029,7 +5890,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -5038,37 +5899,37 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="J44" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -5078,13 +5939,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="X44" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="Y44" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45">
@@ -5100,7 +5961,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -5109,25 +5970,25 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="J45" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="K45" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="O45" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5136,7 +5997,7 @@
         <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5149,13 +6010,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="X45" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="Y45" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46">
@@ -5171,7 +6032,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -5180,51 +6041,39 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="J46" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="K46" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
-      <c r="N46" t="s">
-        <v>377</v>
-      </c>
-      <c r="O46" t="s">
-        <v>61</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="X46" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="Y46" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47">
@@ -5240,7 +6089,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -5249,25 +6098,25 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="J47" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="K47" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>400</v>
+        <v>332</v>
       </c>
       <c r="O47" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5289,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="X47" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="Y47" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48">
@@ -5311,7 +6160,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -5320,37 +6169,37 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="J48" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K48" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="L48" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O48" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
         <v>4</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5360,13 +6209,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="X48" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="Y48" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49">
@@ -5382,7 +6231,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5391,53 +6240,53 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="J49" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="K49" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
         <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="X49" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="Y49" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50">
@@ -5453,7 +6302,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5462,25 +6311,25 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="J50" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5489,7 +6338,7 @@
         <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5502,13 +6351,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="X50" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="Y50" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51">
@@ -5524,7 +6373,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5533,25 +6382,25 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="J51" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="K51" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="L51" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O51" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5573,13 +6422,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="X51" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="Y51" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52">
@@ -5595,7 +6444,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5604,31 +6453,35 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="J52" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="K52" t="s">
-        <v>436</v>
+        <v>204</v>
       </c>
       <c r="L52" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O52" t="s">
-        <v>68</v>
-      </c>
-      <c r="P52" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
       <c r="Q52" t="n">
         <v>5</v>
       </c>
-      <c r="R52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
       <c r="S52" t="n">
         <v>5</v>
       </c>
@@ -5639,14 +6492,10 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>422</v>
-      </c>
-      <c r="X52" t="s">
-        <v>423</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53">
@@ -5662,7 +6511,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5671,28 +6520,28 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="J53" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="K53" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="L53" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
         <v>5</v>
@@ -5711,13 +6560,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="X53" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="Y53" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54">
@@ -5733,7 +6582,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5742,53 +6591,53 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="J54" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="K54" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="O54" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="X54" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="Y54" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55">
@@ -5804,7 +6653,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5813,25 +6662,25 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="J55" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="K55" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="L55" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="O55" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5853,13 +6702,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="X55" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="Y55" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56">
@@ -5875,7 +6724,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5884,34 +6733,34 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="K56" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="O56" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
         <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -5924,13 +6773,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="X56" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="Y56" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57">
@@ -5946,7 +6795,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5955,39 +6804,53 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="J57" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="K57" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
-      </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>451</v>
+      </c>
+      <c r="O57" t="s">
+        <v>140</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="X57" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="Y57" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58">
@@ -6003,7 +6866,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -6012,34 +6875,34 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="J58" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="K58" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="L58" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="O58" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
         <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -6052,13 +6915,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="X58" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="Y58" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59">
@@ -6074,7 +6937,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -6083,49 +6946,47 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="J59" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="K59" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="L59" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="O59" t="s">
-        <v>493</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>4</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>460</v>
+      </c>
+      <c r="X59" t="s">
+        <v>461</v>
+      </c>
       <c r="Y59" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60">
@@ -6141,7 +7002,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -6150,49 +7011,53 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="J60" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="K60" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="L60" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
       <c r="O60" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>475</v>
+      </c>
+      <c r="X60" t="s">
+        <v>476</v>
+      </c>
       <c r="Y60" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61">
@@ -6208,7 +7073,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -6217,49 +7082,51 @@
         <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="J61" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="K61" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="L61" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
       <c r="O61" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>475</v>
+      </c>
+      <c r="X61" t="s">
+        <v>476</v>
+      </c>
       <c r="Y61" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62">
@@ -6275,7 +7142,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -6284,22 +7151,22 @@
         <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="J62" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="K62" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="L62" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>510</v>
+        <v>451</v>
       </c>
       <c r="O62" t="s">
         <v>52</v>
@@ -6311,7 +7178,7 @@
         <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
@@ -6323,10 +7190,14 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>488</v>
+      </c>
+      <c r="X62" t="s">
+        <v>489</v>
+      </c>
       <c r="Y62" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63">
@@ -6342,7 +7213,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -6351,49 +7222,53 @@
         <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="J63" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="K63" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="L63" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="O63" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>496</v>
+      </c>
+      <c r="X63" t="s">
+        <v>497</v>
+      </c>
       <c r="Y63" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64">
@@ -6409,7 +7284,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="G64" t="s">
         <v>45</v>
@@ -6418,32 +7293,38 @@
         <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="J64" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="K64" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="L64" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="O64" t="s">
-        <v>493</v>
+        <v>52</v>
       </c>
       <c r="P64" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
         <v>5</v>
@@ -6452,13 +7333,3159 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
+        <v>504</v>
+      </c>
+      <c r="X64" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>506</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>507</v>
+      </c>
+      <c r="J65" t="s">
+        <v>508</v>
+      </c>
+      <c r="K65" t="s">
+        <v>509</v>
+      </c>
+      <c r="L65" t="s">
+        <v>510</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>511</v>
+      </c>
+      <c r="O65" t="s">
+        <v>140</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>512</v>
+      </c>
+      <c r="X65" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>515</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>516</v>
+      </c>
+      <c r="J66" t="s">
+        <v>517</v>
+      </c>
+      <c r="K66" t="s">
+        <v>518</v>
+      </c>
+      <c r="L66" t="s">
+        <v>519</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>468</v>
+      </c>
+      <c r="O66" t="s">
+        <v>140</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>520</v>
+      </c>
+      <c r="X66" t="s">
         <v>521</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y66" t="s">
         <v>522</v>
       </c>
-      <c r="Y64" t="s">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
         <v>523</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>524</v>
+      </c>
+      <c r="J67" t="s">
+        <v>525</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>185</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>468</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>526</v>
+      </c>
+      <c r="X67" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>528</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>529</v>
+      </c>
+      <c r="J68" t="s">
+        <v>530</v>
+      </c>
+      <c r="K68" t="s">
+        <v>531</v>
+      </c>
+      <c r="L68" t="s">
+        <v>532</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>533</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>526</v>
+      </c>
+      <c r="X68" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>535</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>536</v>
+      </c>
+      <c r="J69" t="s">
+        <v>537</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s">
+        <v>185</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>533</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>526</v>
+      </c>
+      <c r="X69" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>538</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>539</v>
+      </c>
+      <c r="J70" t="s">
+        <v>540</v>
+      </c>
+      <c r="K70" t="s">
+        <v>541</v>
+      </c>
+      <c r="L70" t="s">
+        <v>542</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>468</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>543</v>
+      </c>
+      <c r="X70" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>546</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>547</v>
+      </c>
+      <c r="J71" t="s">
+        <v>548</v>
+      </c>
+      <c r="K71" t="s">
+        <v>549</v>
+      </c>
+      <c r="L71" t="s">
+        <v>550</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>468</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>551</v>
+      </c>
+      <c r="X71" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>554</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>555</v>
+      </c>
+      <c r="J72" t="s">
+        <v>556</v>
+      </c>
+      <c r="K72" t="s">
+        <v>557</v>
+      </c>
+      <c r="L72" t="s">
+        <v>558</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>468</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>559</v>
+      </c>
+      <c r="X72" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>562</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>563</v>
+      </c>
+      <c r="J73" t="s">
+        <v>564</v>
+      </c>
+      <c r="K73" t="s">
+        <v>565</v>
+      </c>
+      <c r="L73" t="s">
+        <v>566</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>533</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>567</v>
+      </c>
+      <c r="X73" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>570</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>571</v>
+      </c>
+      <c r="J74" t="s">
+        <v>572</v>
+      </c>
+      <c r="K74" t="s">
+        <v>573</v>
+      </c>
+      <c r="L74" t="s">
+        <v>574</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>533</v>
+      </c>
+      <c r="O74" t="s">
+        <v>140</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>567</v>
+      </c>
+      <c r="X74" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>576</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>577</v>
+      </c>
+      <c r="J75" t="s">
+        <v>578</v>
+      </c>
+      <c r="K75" t="s">
+        <v>579</v>
+      </c>
+      <c r="L75" t="s">
+        <v>580</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>533</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>581</v>
+      </c>
+      <c r="X75" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>584</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>585</v>
+      </c>
+      <c r="J76" t="s">
+        <v>586</v>
+      </c>
+      <c r="K76" t="s">
+        <v>330</v>
+      </c>
+      <c r="L76" t="s">
+        <v>587</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>588</v>
+      </c>
+      <c r="O76" t="s">
+        <v>87</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>589</v>
+      </c>
+      <c r="X76" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>592</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>593</v>
+      </c>
+      <c r="J77" t="s">
+        <v>594</v>
+      </c>
+      <c r="K77" t="s">
+        <v>595</v>
+      </c>
+      <c r="L77" t="s">
+        <v>596</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>588</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>597</v>
+      </c>
+      <c r="X77" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>600</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>601</v>
+      </c>
+      <c r="J78" t="s">
+        <v>602</v>
+      </c>
+      <c r="K78" t="s">
+        <v>603</v>
+      </c>
+      <c r="L78" t="s">
+        <v>604</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>588</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>597</v>
+      </c>
+      <c r="X78" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>606</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>607</v>
+      </c>
+      <c r="J79" t="s">
+        <v>608</v>
+      </c>
+      <c r="K79" t="s">
+        <v>609</v>
+      </c>
+      <c r="L79" t="s">
+        <v>610</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>588</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>597</v>
+      </c>
+      <c r="X79" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>612</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>613</v>
+      </c>
+      <c r="J80" t="s">
+        <v>614</v>
+      </c>
+      <c r="K80" t="s">
+        <v>615</v>
+      </c>
+      <c r="L80" t="s">
+        <v>616</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>588</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>617</v>
+      </c>
+      <c r="X80" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>620</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>621</v>
+      </c>
+      <c r="J81" t="s">
+        <v>622</v>
+      </c>
+      <c r="K81" t="s">
+        <v>623</v>
+      </c>
+      <c r="L81" t="s">
+        <v>624</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>625</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>626</v>
+      </c>
+      <c r="X81" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>629</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>630</v>
+      </c>
+      <c r="J82" t="s">
+        <v>622</v>
+      </c>
+      <c r="K82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L82" t="s">
+        <v>632</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>625</v>
+      </c>
+      <c r="O82" t="s">
+        <v>140</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>626</v>
+      </c>
+      <c r="X82" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>634</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>635</v>
+      </c>
+      <c r="J83" t="s">
+        <v>636</v>
+      </c>
+      <c r="K83" t="s">
+        <v>637</v>
+      </c>
+      <c r="L83" t="s">
+        <v>638</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>625</v>
+      </c>
+      <c r="O83" t="s">
+        <v>62</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>639</v>
+      </c>
+      <c r="X83" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>642</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>643</v>
+      </c>
+      <c r="J84" t="s">
+        <v>644</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>185</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>625</v>
+      </c>
+      <c r="O84" t="s">
+        <v>87</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>639</v>
+      </c>
+      <c r="X84" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>645</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>646</v>
+      </c>
+      <c r="J85" t="s">
+        <v>647</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s">
+        <v>185</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>625</v>
+      </c>
+      <c r="O85" t="s">
+        <v>140</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>648</v>
+      </c>
+      <c r="X85" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>650</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>651</v>
+      </c>
+      <c r="J86" t="s">
+        <v>652</v>
+      </c>
+      <c r="K86" t="s">
+        <v>653</v>
+      </c>
+      <c r="L86" t="s">
+        <v>654</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>625</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>648</v>
+      </c>
+      <c r="X86" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>656</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>657</v>
+      </c>
+      <c r="J87" t="s">
+        <v>658</v>
+      </c>
+      <c r="K87" t="s">
+        <v>659</v>
+      </c>
+      <c r="L87" t="s">
+        <v>660</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>625</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>661</v>
+      </c>
+      <c r="X87" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>664</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>665</v>
+      </c>
+      <c r="J88" t="s">
+        <v>666</v>
+      </c>
+      <c r="K88" t="s">
+        <v>667</v>
+      </c>
+      <c r="L88" t="s">
+        <v>668</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>625</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>648</v>
+      </c>
+      <c r="X88" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>670</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>671</v>
+      </c>
+      <c r="J89" t="s">
+        <v>672</v>
+      </c>
+      <c r="K89" t="s">
+        <v>673</v>
+      </c>
+      <c r="L89" t="s">
+        <v>674</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>625</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>675</v>
+      </c>
+      <c r="X89" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>678</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>679</v>
+      </c>
+      <c r="J90" t="s">
+        <v>680</v>
+      </c>
+      <c r="K90" t="s">
+        <v>681</v>
+      </c>
+      <c r="L90" t="s">
+        <v>682</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>625</v>
+      </c>
+      <c r="O90" t="s">
+        <v>110</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>683</v>
+      </c>
+      <c r="X90" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>686</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>687</v>
+      </c>
+      <c r="J91" t="s">
+        <v>680</v>
+      </c>
+      <c r="K91" t="s">
+        <v>688</v>
+      </c>
+      <c r="L91" t="s">
+        <v>689</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>625</v>
+      </c>
+      <c r="O91" t="s">
+        <v>62</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>675</v>
+      </c>
+      <c r="X91" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>691</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>692</v>
+      </c>
+      <c r="J92" t="s">
+        <v>693</v>
+      </c>
+      <c r="K92" t="s">
+        <v>694</v>
+      </c>
+      <c r="L92" t="s">
+        <v>695</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>625</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>675</v>
+      </c>
+      <c r="X92" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>697</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>698</v>
+      </c>
+      <c r="J93" t="s">
+        <v>699</v>
+      </c>
+      <c r="K93" t="s">
+        <v>700</v>
+      </c>
+      <c r="L93" t="s">
+        <v>701</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>511</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>702</v>
+      </c>
+      <c r="X93" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>705</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>706</v>
+      </c>
+      <c r="J94" t="s">
+        <v>707</v>
+      </c>
+      <c r="K94" t="s">
+        <v>708</v>
+      </c>
+      <c r="L94" t="s">
+        <v>709</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>511</v>
+      </c>
+      <c r="O94" t="s">
+        <v>52</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>710</v>
+      </c>
+      <c r="X94" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>713</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>714</v>
+      </c>
+      <c r="J95" t="s">
+        <v>715</v>
+      </c>
+      <c r="K95" t="s">
+        <v>716</v>
+      </c>
+      <c r="L95" t="s">
+        <v>717</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>511</v>
+      </c>
+      <c r="O95" t="s">
+        <v>62</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>710</v>
+      </c>
+      <c r="X95" t="s">
+        <v>711</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>719</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>720</v>
+      </c>
+      <c r="J96" t="s">
+        <v>721</v>
+      </c>
+      <c r="K96" t="s">
+        <v>722</v>
+      </c>
+      <c r="L96" t="s">
+        <v>723</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>511</v>
+      </c>
+      <c r="O96" t="s">
+        <v>52</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>724</v>
+      </c>
+      <c r="X96" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>727</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>728</v>
+      </c>
+      <c r="J97" t="s">
+        <v>729</v>
+      </c>
+      <c r="K97" t="s">
+        <v>730</v>
+      </c>
+      <c r="L97" t="s">
+        <v>731</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>732</v>
+      </c>
+      <c r="X97" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>735</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>736</v>
+      </c>
+      <c r="J98" t="s">
+        <v>737</v>
+      </c>
+      <c r="K98" t="s">
+        <v>738</v>
+      </c>
+      <c r="L98" t="s">
+        <v>739</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>740</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>741</v>
+      </c>
+      <c r="X98" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>744</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>745</v>
+      </c>
+      <c r="J99" t="s">
+        <v>746</v>
+      </c>
+      <c r="K99" t="s">
+        <v>747</v>
+      </c>
+      <c r="L99" t="s">
+        <v>748</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>740</v>
+      </c>
+      <c r="O99" t="s">
+        <v>87</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>732</v>
+      </c>
+      <c r="X99" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>750</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>751</v>
+      </c>
+      <c r="J100" t="s">
+        <v>752</v>
+      </c>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s">
+        <v>185</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>740</v>
+      </c>
+      <c r="O100" t="s">
+        <v>62</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>753</v>
+      </c>
+      <c r="X100" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>755</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>756</v>
+      </c>
+      <c r="J101" t="s">
+        <v>757</v>
+      </c>
+      <c r="K101" t="s">
+        <v>758</v>
+      </c>
+      <c r="L101" t="s">
+        <v>759</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>760</v>
+      </c>
+      <c r="O101" t="s">
+        <v>110</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>761</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>762</v>
+      </c>
+      <c r="J102" t="s">
+        <v>763</v>
+      </c>
+      <c r="K102" t="s">
+        <v>764</v>
+      </c>
+      <c r="L102" t="s">
+        <v>765</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>766</v>
+      </c>
+      <c r="O102" t="s">
+        <v>140</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>767</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>768</v>
+      </c>
+      <c r="J103" t="s">
+        <v>769</v>
+      </c>
+      <c r="K103" t="s">
+        <v>770</v>
+      </c>
+      <c r="L103" t="s">
+        <v>771</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>766</v>
+      </c>
+      <c r="O103" t="s">
+        <v>62</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>772</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>773</v>
+      </c>
+      <c r="J104" t="s">
+        <v>774</v>
+      </c>
+      <c r="K104" t="s">
+        <v>775</v>
+      </c>
+      <c r="L104" t="s">
+        <v>776</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>766</v>
+      </c>
+      <c r="O104" t="s">
+        <v>52</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>777</v>
+      </c>
+      <c r="X104" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>780</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>781</v>
+      </c>
+      <c r="J105" t="s">
+        <v>782</v>
+      </c>
+      <c r="K105" t="s">
+        <v>783</v>
+      </c>
+      <c r="L105" t="s">
+        <v>784</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s">
+        <v>766</v>
+      </c>
+      <c r="O105" t="s">
+        <v>140</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>777</v>
+      </c>
+      <c r="X105" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>786</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>787</v>
+      </c>
+      <c r="J106" t="s">
+        <v>788</v>
+      </c>
+      <c r="K106" t="s">
+        <v>789</v>
+      </c>
+      <c r="L106" t="s">
+        <v>790</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>791</v>
+      </c>
+      <c r="O106" t="s">
+        <v>87</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>792</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>793</v>
+      </c>
+      <c r="J107" t="s">
+        <v>794</v>
+      </c>
+      <c r="K107" t="s">
+        <v>795</v>
+      </c>
+      <c r="L107" t="s">
+        <v>796</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>791</v>
+      </c>
+      <c r="O107" t="s">
+        <v>62</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>797</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>798</v>
+      </c>
+      <c r="J108" t="s">
+        <v>799</v>
+      </c>
+      <c r="K108" t="s">
+        <v>800</v>
+      </c>
+      <c r="L108" t="s">
+        <v>801</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>791</v>
+      </c>
+      <c r="O108" t="s">
+        <v>110</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>802</v>
+      </c>
+      <c r="X108" t="s">
+        <v>803</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s">
+        <v>805</v>
+      </c>
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" t="s">
+        <v>806</v>
+      </c>
+      <c r="J109" t="s">
+        <v>807</v>
+      </c>
+      <c r="K109" t="s">
+        <v>808</v>
+      </c>
+      <c r="L109" t="s">
+        <v>809</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>791</v>
+      </c>
+      <c r="O109" t="s">
+        <v>52</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>65653</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s">
+        <v>810</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" t="s">
+        <v>811</v>
+      </c>
+      <c r="J110" t="s">
+        <v>812</v>
+      </c>
+      <c r="K110" t="s">
+        <v>813</v>
+      </c>
+      <c r="L110" t="s">
+        <v>814</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s">
+        <v>815</v>
+      </c>
+      <c r="O110" t="s">
+        <v>52</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>816</v>
+      </c>
+      <c r="X110" t="s">
+        <v>817</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>
